--- a/frontend-cemos/public/assets/content/historia/breve-historia/script/m_consolidado.xlsx
+++ b/frontend-cemos/public/assets/content/historia/breve-historia/script/m_consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5014,32 +5014,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Por que, em meados de 1945, os aliados consideravam que uma invasão convencional ao Japão (Ilha de Honshu) seria uma operação de risco extremo, apesar das vitórias no Pacífico?</t>
+          <t>Sobre o ataque a Pearl Harbor, por que os comandantes japoneses ficaram desapontados apesar do sucesso inicial?</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Porque a Marinha norte-americana havia perdido a maioria de seus navios nas Filipinas e não conseguiria transportar as tropas necessárias.</t>
+          <t>Perderam metade de sua frota de porta-aviões no ataque.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Devido à previsão de que tal invasão custaria 1 milhão de vidas norte-americanas e ao fato de o moral japonês e seus pilotos kamikazes não terem sido abalados pelos bombardeios.</t>
+          <t>Os três porta-aviões norte-americanos não estavam no porto e não foram descobertos.</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Porque a Grã-Bretanha se recusou a fornecer apoio naval para uma invasão, preferindo focar na reconstrução da Europa pós-guerra.</t>
+          <t>Os radares das Filipinas detectaram o ataque com antecedência.</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Porque os serviços de inteligência descobriram que o Japão já possuía uma bomba atômica pronta para ser usada contra os invasores nas praias.</t>
+          <t>O general MacArthur conseguiu defender Manila com sucesso.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 1**, estimava-se que a invasão "comprometeria aproximadamente 1 milhão de vidas" e "o moral nas cidades japonesas não havia sido abalado".</t>
+          <t>Conforme o segundo parágrafo da Página 1, os pilotos e comandantes ficaram desapontados porque os três porta-aviões norte-americanos estavam em alto-mar.</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -5070,42 +5070,42 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Em sua carta ao presidente dos Estados Unidos em 1939, qual limitação técnica Albert Einstein apontou sobre a possível nova arma baseada em reação nuclear?</t>
+          <t>Qual fator contribuiu para a vulnerabilidade da base naval britânica em Cingapura em relação ao Japão?</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Einstein alertou que a bomba seria instável demais para ser transportada, podendo explodir a qualquer momento durante a fabricação.</t>
+          <t>A crença de que os pilotos japoneses não conseguiam avistar alvos à noite.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>O cientista acreditava que a bomba teria um raio de destruição muito pequeno, sendo inútil para fins militares estratégicos.</t>
+          <t>O envio imediato de toda a esquadra britânica para o Pacífico.</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Baseado em especialistas, ele concluiu que a bomba talvez fosse pesada demais para ser levada de avião, sugerindo que fosse transportada por barco para destruir portos.</t>
+          <t>O sucesso absoluto do exército japonês na conquista total da China.</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Ele afirmou que a tecnologia necessária para a bomba levaria pelo menos vinte anos para ser desenvolvida, tornando-a inviável para a guerra em curso.</t>
+          <t>A presença de uma numerosa força aérea britânica na região.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da seção 'Sob o Estádio' (Página 2)**, Einstein escreveu: "transportada de barco... Einstein concluiu que talvez fosse pesada demais para ser levada de avião".</t>
+          <t>Conforme o primeiro parágrafo da Página 2 (Alerta em Cingapura), os oficiais britânicos foram levados a acreditar nisso, além de subestimarem a força aérea japonesa.</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -5126,42 +5126,42 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Como o governo dos Estados Unidos justificou publicamente o clarão e o impacto visual causados pelo teste da bomba atômica no deserto em 16 de julho de 1945?</t>
+          <t>O que caracterizou o afundamento dos navios Prince of Wales e Repulse em 10 de dezembro de 1941?</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>O governo admitiu imediatamente que se tratava de um teste nuclear bem-sucedido para intimidar o Japão.</t>
+          <t>Foi a primeira vitória terrestre decisiva do Japão na Malásia.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Foi divulgado que se tratava de um fenômeno meteorológico raro, uma tempestade elétrica de proporções inéditas no deserto.</t>
+          <t>Marcou a total destruição da Marinha Real Britânica em Londres.</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>O governo manteve silêncio total, proibindo qualquer menção ao evento em jornais ou rádios locais.</t>
+          <t>Foi a primeira vitória aérea importante sobre uma grande força naval na história das guerras.</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Adotou-se como álibi oficial para a luz ofuscante a explicação de que havia ocorrido a explosão de um depósito de munição.</t>
+          <t>Os navios foram afundados por submarinos alemães no Mediterrâneo.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 3**, o governo adotou "como álibi oficial para a luz ofuscante a explosão de um depósito de munição".</t>
+          <t>Conforme o primeiro parágrafo da Página 3, o afundamento desses navios representou a primeira vitória aérea importante sobre uma grande força naval.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -5182,42 +5182,42 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Qual evento geopolítico relevante ocorreu durante o intervalo entre a explosão da primeira bomba atômica (Hiroshima) e a segunda (Nagasaki)?</t>
+          <t>Qual foi a principal inovação tática observada na Batalha do Mar de Coral em maio de 1942?</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>A rendição incondicional da Alemanha nazista, liberando tropas para o Pacífico.</t>
+          <t>Foi o primeiro conflito em que as esquadras rivais não se avistaram diretamente.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>A entrada da União Soviética na guerra contra o Japão, com a invasão da Manchúria por soldados que não eram mais necessários na Europa.</t>
+          <t>Foi a primeira batalha vencida exclusivamente por tanques terrestres anfíbios.</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>A tentativa de golpe de estado contra o imperador Hirohito por generais que desejavam a rendição imediata.</t>
+          <t>Marcou o fim definitivo da participação japonesa na guerra.</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>A assinatura de um tratado de paz secreto entre o Japão e a Grã-Bretanha, que foi ignorado pelos Estados Unidos.</t>
+          <t>Foi a primeira vez que submarinos nucleares foram utilizados em combate.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 4**, "Durante o intervalo entre a explosão da primeira e da segunda bomba... a União Soviética entrou na guerra... invadiram a Manchúria".</t>
+          <t>Conforme o terceiro parágrafo da Página 4, a batalha tornou-se o primeiro grande conflito em que as esquadras rivais não tinham uma à outra em seu campo de observação.</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -5238,32 +5238,32 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Ao refletir sobre os perigos da concentração de poder no pós-guerra, o texto cita o historiador Lorde Acton. Qual é a famosa máxima desse autor mencionada no capítulo?</t>
+          <t>Por que a arma mortal da "surpresa" japonesa foi destruída na Batalha de Midway?</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>"A guerra é a continuação da política por outros meios."</t>
+          <t>Porque o Japão anunciou formalmente seus planos de ataque via rádio.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>"O poder tende a corromper, poder absoluto corrompe absolutamente."</t>
+          <t>Porque os norte-americanos decifraram o código secreto da marinha japonesa.</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>"Aqueles que não conhecem a história estão condenados a repeti-la."</t>
+          <t>Porque os radares de Pearl Harbor foram reparados e detectaram a frota.</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>"O fim justifica os meios quando a segurança da nação está em jogo."</t>
+          <t>Porque a Alemanha revelou os planos japoneses aos Aliados.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Nos termos do **último parágrafo da Página 5**, Acton escreveu: "O poder tende a corromper, poder absoluto corrompe absolutamente".</t>
+          <t>Conforme o primeiro parágrafo da Página 5, os norte-americanos decifraram o código secreto japonês e conheciam seus planos e táticas.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -5289,37 +5289,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Segundo o texto, qual característica geopolítica distinguia as novas "superpotências" (EUA e URSS) das antigas potências imperiais europeias logo após a Segunda Guerra Mundial?</t>
+          <t>Em 1942, qual evento marcou a mudança da sorte da Alemanha em relação aos bombardeios aéreos?</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ambas compartilhavam uma longa fronteira terrestre na Europa Central, o que aumentava a tensão imediata.</t>
+          <t>A capital Berlim rendeu-se imediatamente após o primeiro ataque.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Ao contrário dos antigos impérios coloniais, as superpotências praticamente não possuíam territórios no Hemisfério Sul.</t>
+          <t>A Alemanha começou a sofrer bombardeios maciços aliados, como o ataque de mil aviões a Colônia.</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Ambas baseavam seu poder na posse de vastas colônias na África e na América do Sul para extração de recursos.</t>
+          <t>Hitler decidiu desviar todos os seus aviões para defender o Mar Negro.</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Washington e Moscou eram vizinhas geograficamente próximas, facilitando a comunicação diplomática direta.</t>
+          <t>A força aérea alemã conseguiu impedir que aviões norte-americanos usassem bases britânicas.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo do item da Página 1**, as superpotências "não 'possuíam', praticamente nada no Hemisfério Sul".</t>
+          <t>Conforme o segundo parágrafo da Página 6, mil aviões britânicos bombardearam Colônia e os EUA começaram a usar bases na Grã-Bretanha para atacar a Alemanha.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -5345,47 +5345,47 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Como o texto descreve o processo de consolidação do poder comunista na Tchecoslováquia entre 1946 e 1948?</t>
+          <t>Sobre a campanha na Itália, quanto tempo durou a luta no território italiano após a deposição de Mussolini?</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Foi uma invasão militar direta e imediata da União Soviética, sem qualquer tentativa de processo político interno.</t>
+          <t>A resistência alemã cessou em quatro semanas após a invasão da Sicília.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>O Partido Comunista venceu as eleições com 100% dos votos em 1946, estabelecendo um governo unipartidário pacificamente.</t>
+          <t>A luta no território continuou por seiscentos dias.</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Após não obterem maioria nas eleições, os comunistas controlaram a polícia, forçaram a renúncia de oponentes e assumiram o controle total após a morte suspeita de Jan Masaryk.</t>
+          <t>Os Aliados levaram apenas 15 dias para retomar todo o norte da Itália.</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>A Tchecoslováquia manteve-se neutra e democrática durante todo o período, servindo como uma ponte entre o Oriente e o Ocidente.</t>
+          <t>A Itália foi libertada antes mesmo do início da invasão da Normandia.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>De acordo com o **parágrafo da Página 2**, houve controle da polícia, renúncia de oponentes e a morte de Jan Masaryk, resultando em um ministério "apenas [com] comunistas".</t>
+          <t>Conforme o primeiro parágrafo da Página 7, a luta continuou durante seiscentos dias, com os alemães aproveitando as cadeias de montanhas.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -5401,37 +5401,37 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Qual foi a resposta dos Estados Unidos e da Grã-Bretanha ao bloqueio das linhas de suprimento de Berlim ordenado por Moscou em 1947?</t>
+          <t>Além das batalhas de front, quem eram os principais responsáveis pelas decisões mundiais no final de 1944?</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Iniciaram uma invasão militar terrestre através da zona soviética para reabrir as estradas à força.</t>
+          <t>A Liga das Nações reunida em conferência permanente em Paris.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Abandonaram Berlim Ocidental, retirando suas tropas para evitar uma nova guerra mundial.</t>
+          <t>Os generais de campo MacArthur, Rommel e Eisenhower.</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Organizaram um transporte aéreo (ponte aérea) que durou mais de um ano para enviar suprimentos à cidade.</t>
+          <t>Os líderes das três nações vencedoras: Stalin, Roosevelt e Churchill.</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Impuseram um bloqueio naval total aos portos soviéticos no Mar Báltico e no Mar Negro.</t>
+          <t>Representantes diplomáticos da França ocupada e da Espanha neutra.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo do item da Página 3**, eles reagiram "enviar suprimentos por via aérea... Por mais de um ano, o transporte aéreo continuou".</t>
+          <t>Conforme o segundo parágrafo da Página 8, o futuro da Europa estava sendo decidido pela personalidade e ambições de Stalin, Roosevelt e Churchill.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -5457,47 +5457,47 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>O texto menciona que a "cortina de ferro" teve exceções em sua homogeneidade política. Qual país foi expulso do Cominform em 1948 por "não rezar pela cartilha de Stalin"?</t>
+          <t>Qual característica física de Franklin D. Roosevelt é destacada como um desafio enfrentado por ele durante a guerra?</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Polônia.</t>
+          <t>Ele sofria de surdez profunda desde a Primeira Guerra Mundial.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Iugoslávia.</t>
+          <t>Ele era cego de um olho devido a um acidente na infância.</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Hungria.</t>
+          <t>Ele precisava de muletas e cadeira de rodas devido à poliomielite.</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Alemanha Oriental.</t>
+          <t>Ele possuía uma vigorosa saúde física que superava Churchill e Stalin.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Conforme o **último parágrafo da Página 4 (item)**, a "Iugoslávia não rezava pela cartilha de Stalin e foi expulsa... em 1948".</t>
+          <t>Conforme o primeiro parágrafo da Página 9, Roosevelt contraíra poliomielite aos 40 anos e dependia de muletas e cadeira de rodas.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -5513,37 +5513,37 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Quem foi Andrei Sakharov e qual foi seu papel no contexto da Guerra Fria descrito no texto?</t>
+          <t>Na conferência de Yalta, em fevereiro de 1945, qual convicção era compartilhada por Stalin e Roosevelt em oposição a Churchill?</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Foi um espião americano que entregou segredos nucleares à União Soviética.</t>
+          <t>Que a União Soviética deveria anexar toda a Europa Ocidental.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Foi um jovem físico que liderou a pesquisa nuclear russa, contribuindo para o desenvolvimento da bomba de hidrogênio soviética.</t>
+          <t>Que as colônias europeias espalhadas pelo globo deveriam se libertar.</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Foi o diplomata responsável por negociar os primeiros tratados de desarmamento entre EUA e URSS.</t>
+          <t>Que a guerra contra o Japão deveria ser encerrada sem a participação russa.</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Foi um dissidente político que impediu a União Soviética de desenvolver armas atômicas até a década de 1960.</t>
+          <t>Que o controle da Grã-Bretanha sobre o Mediterrâneo era essencial para a paz.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Nos termos do **segundo parágrafo da Página 5 (item)**, "Sakharov liderou a pesquisa nuclear russa... a Rússia finalmente obteve sua bomba de hidrogênio".</t>
+          <t>Conforme o terceiro parágrafo da Página 10, ambos acreditavam que chegaria a época das colônias se libertarem e estavam determinados a acelerar o processo.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -5569,37 +5569,37 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>O que marcou o rompimento da aliança entre o Partido Comunista Chinês e o Partido Nacionalista (Kuomintang) em 1927?</t>
+          <t>No colapso de Berlim em 1945, qual foi o destino final de Adolf Hitler?</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>A invasão japonesa da Manchúria, que dividiu as opiniões sobre como defender o país.</t>
+          <t>Fugiu para o Leste Europeu para liderar a resistência na Polônia.</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>A morte do Dr. Sun Yat-sen e a disputa pela sucessão na liderança do partido.</t>
+          <t>Foi capturado por guerrilheiros italianos nas proximidades do Lago Como.</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>O massacre de comunistas e líderes sindicais em Xangai, ordenado pelo general Chiang Kai-shek.</t>
+          <t>Cometeu suicídio enquanto estava sitiado na capital Berlim.</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>A decisão de Mao Tsé-tung de se aliar à União Soviética contra a vontade dos nacionalistas.</t>
+          <t>Rendeu-se incondicionalmente às tropas de Stalin em 7 de maio.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Segundo o **último parágrafo da Página 6 (item)**, Chiang Kai-shek concordou em expulsar os comunistas e "Em abril de 1927, em Xangai, muitos foram assassinados".</t>
+          <t>Conforme o terceiro parágrafo da Página 11, Hitler preferiu cometer suicídio em 30 de abril, dois dias antes de os russos assumirem o controle de Berlim.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -5625,37 +5625,37 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Qual foi a consequência estratégica da "Longa Marcha" liderada por Mao Tsé-tung em 1935?</t>
+          <t>Por que, em meados de 1945, os aliados consideravam que uma invasão convencional ao Japão (Ilha de Honshu) seria uma operação de risco extremo, apesar das vitórias no Pacífico?</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A derrota total dos comunistas e o exílio de Mao Tsé-tung na União Soviética.</t>
+          <t>Porque a Marinha norte-americana havia perdido a maioria de seus navios nas Filipinas e não conseguiria transportar as tropas necessárias.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>O estabelecimento de uma nova fortaleza isolada e inconquistável no norte da província de Shaanxi.</t>
+          <t>Devido à previsão de que tal invasão custaria 1 milhão de vidas norte-americanas e ao fato de o moral japonês e seus pilotos kamikazes não terem sido abalados pelos bombardeios.</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>A captura da cidade de Xangai pelos comunistas e a expulsão dos nacionalistas para o mar.</t>
+          <t>Porque a Grã-Bretanha se recusou a fornecer apoio naval para uma invasão, preferindo focar na reconstrução da Europa pós-guerra.</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>A unificação imediata da China sob um governo de coalizão entre Mao e Chiang Kai-shek.</t>
+          <t>Porque os serviços de inteligência descobriram que o Japão já possuía uma bomba atômica pronta para ser usada contra os invasores nas praias.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 7 (item)**, a marcha salvou os comunistas e sua "nova e isolada fortaleza no norte... era inconquistável".</t>
+          <t>Conforme o **segundo parágrafo da Página 1**, estimava-se que a invasão "comprometeria aproximadamente 1 milhão de vidas" e "o moral nas cidades japonesas não havia sido abalado".</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -5681,47 +5681,47 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Após a vitória comunista na China em 1949, qual cenário geopolítico "provocou calafrios" nos líderes ocidentais?</t>
+          <t>Em sua carta ao presidente dos Estados Unidos em 1939, qual limitação técnica Albert Einstein apontou sobre a possível nova arma baseada em reação nuclear?</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>A formação de um bloco comunista contínuo estendendo-se do Mediterrâneo até o Oceano Pacífico.</t>
+          <t>Einstein alertou que a bomba seria instável demais para ser transportada, podendo explodir a qualquer momento durante a fabricação.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>A declaração imediata de guerra da China contra o Japão e a Coreia do Sul.</t>
+          <t>O cientista acreditava que a bomba teria um raio de destruição muito pequeno, sendo inútil para fins militares estratégicos.</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>O rompimento das relações entre a China de Mao e a União Soviética de Stalin.</t>
+          <t>Baseado em especialistas, ele concluiu que a bomba talvez fosse pesada demais para ser levada de avião, sugerindo que fosse transportada por barco para destruir portos.</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>A aliança militar entre a China e a Índia para dominar o sul da Ásia.</t>
+          <t>Ele afirmou que a tecnologia necessária para a bomba levaria pelo menos vinte anos para ser desenvolvida, tornando-a inviável para a guerra em curso.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 8 (item)**, havia um "pedaço do território comunista estendia-se desde o Mediterrâneo... até as costas do Oceano Pacífico".</t>
+          <t>De acordo com o **segundo parágrafo da seção 'Sob o Estádio' (Página 2)**, Einstein escreveu: "transportada de barco... Einstein concluiu que talvez fosse pesada demais para ser levada de avião".</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5737,47 +5737,47 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Por que a União Soviética não vetou a resolução do Conselho de Segurança da ONU que autorizava uma operação militar na Coreia em 1950?</t>
+          <t>Como o governo dos Estados Unidos justificou publicamente o clarão e o impacto visual causados pelo teste da bomba atômica no deserto em 16 de julho de 1945?</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Porque Stalin acreditava que a intervenção da ONU falharia e enfraqueceria os Estados Unidos.</t>
+          <t>O governo admitiu imediatamente que se tratava de um teste nuclear bem-sucedido para intimidar o Japão.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Porque a União Soviética concordava que a Coreia do Norte era a agressora no conflito.</t>
+          <t>Foi divulgado que se tratava de um fenômeno meteorológico raro, uma tempestade elétrica de proporções inéditas no deserto.</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Porque o representante russo havia abandonado o Conselho meses antes em protesto e estava ausente.</t>
+          <t>O governo manteve silêncio total, proibindo qualquer menção ao evento em jornais ou rádios locais.</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Porque a China comunista convenceu a União Soviética a permitir a intervenção para testar suas próprias forças.</t>
+          <t>Adotou-se como álibi oficial para a luz ofuscante a explicação de que havia ocorrido a explosão de um depósito de munição.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>d</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 9 (item)**, o representante russo "havia abandonado a organização... e continuava ausente. Assim... não pôde exercer seu direito de veto".</t>
+          <t>Segundo o **segundo parágrafo da Página 3**, o governo adotou "como álibi oficial para a luz ofuscante a explosão de um depósito de munição".</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5793,47 +5793,47 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Que mudança na geografia política mundial foi evidenciada pelos eventos ocorridos na Ásia na década posterior à Segunda Guerra Mundial?</t>
+          <t>Qual evento geopolítico relevante ocorreu durante o intervalo entre a explosão da primeira bomba atômica (Hiroshima) e a segunda (Nagasaki)?</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>O retorno do domínio colonial europeu sobre a Ásia, reafirmando a centralidade do Atlântico.</t>
+          <t>A rendição incondicional da Alemanha nazista, liberando tropas para o Pacífico.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>O isolamento total da Ásia, que deixou de ter relevância no cenário internacional.</t>
+          <t>A entrada da União Soviética na guerra contra o Japão, com a invasão da Manchúria por soldados que não eram mais necessários na Europa.</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>O Oceano Pacífico começou a desafiar o Atlântico como o novo centro do poder internacional.</t>
+          <t>A tentativa de golpe de estado contra o imperador Hirohito por generais que desejavam a rendição imediata.</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>A transferência do centro de poder mundial para o Oceano Índico devido à independência da Índia.</t>
+          <t>A assinatura de um tratado de paz secreto entre o Japão e a Grã-Bretanha, que foi ignorado pelos Estados Unidos.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 10 (item)**, o Oceano Pacífico "começava a desafiar o Atlântico como centro do poder internacional".</t>
+          <t>Conforme o **segundo parágrafo da Página 4**, "Durante o intervalo entre a explosão da primeira e da segunda bomba... a União Soviética entrou na guerra... invadiram a Manchúria".</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -5849,37 +5849,37 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Segundo o texto, por que a Alemanha obteve uma vantagem militar estratégica sobre a Grã-Bretanha e a França às vésperas da Segunda Guerra Mundial?</t>
+          <t>Ao refletir sobre os perigos da concentração de poder no pós-guerra, o texto cita o historiador Lorde Acton. Qual é a famosa máxima desse autor mencionada no capítulo?</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Porque a Alemanha havia conquistado colônias ricas em petróleo na África, garantindo suprimentos ilimitados.</t>
+          <t>"A guerra é a continuação da política por outros meios."</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Porque a falta de colônias permitiu à Alemanha concentrar recursos em aeronaves, enquanto os aliados dispersavam forças e gastavam com grandes marinhas.</t>
+          <t>"O poder tende a corromper, poder absoluto corrompe absolutamente."</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Porque a Alemanha assinou tratados de não agressão com as colônias britânicas, neutralizando-as.</t>
+          <t>"Aqueles que não conhecem a história estão condenados a repeti-la."</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Porque a opinião pública nos países aliados forçou seus governos a abandonar as colônias antes da guerra começar.</t>
+          <t>"O fim justifica os meios quando a segurança da nação está em jogo."</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 1**, a manutenção do poder nos mares consumia recursos que poderiam ser usados em aeronaves, e a defesa das colônias levava à "dispersão de forças".</t>
+          <t>Nos termos do **último parágrafo da Página 5**, Acton escreveu: "O poder tende a corromper, poder absoluto corrompe absolutamente".</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -5905,37 +5905,37 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>As opiniões políticas de Mahatma Gandhi são descritas no texto como uma "colcha de retalhos". Quais autores ocidentais influenciaram a formação de seu pensamento?</t>
+          <t>Segundo o texto, qual característica geopolítica distinguia as novas "superpotências" (EUA e URSS) das antigas potências imperiais europeias logo após a Segunda Guerra Mundial?</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Karl Marx, Friedrich Engels e Vladimir Lenin.</t>
+          <t>Ambas compartilhavam uma longa fronteira terrestre na Europa Central, o que aumentava a tensão imediata.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Henry Thoreau, John Ruskin e Leon Tolstoi.</t>
+          <t>Ao contrário dos antigos impérios coloniais, as superpotências praticamente não possuíam territórios no Hemisfério Sul.</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Winston Churchill, John Locke e Adam Smith.</t>
+          <t>Ambas baseavam seu poder na posse de vastas colônias na África e na América do Sul para extração de recursos.</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Jean-Jacques Rousseau, Voltaire e Montesquieu.</t>
+          <t>Washington e Moscou eram vizinhas geograficamente próximas, facilitando a comunicação diplomática direta.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 2 (seção 'Uma Bússola...')**, Gandhi admirava "Henry Thoreau... John Ruskin... e o romancista russo Leon Tolstoi".</t>
+          <t>Conforme o **segundo parágrafo do item da Página 1**, as superpotências "não 'possuíam', praticamente nada no Hemisfério Sul".</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -5961,37 +5961,37 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Qual foi o objetivo estratégico e o impacto da "Marcha do Sal" liderada por Gandhi em 1930?</t>
+          <t>Como o texto descreve o processo de consolidação do poder comunista na Tchecoslováquia entre 1946 e 1948?</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Arrecadar fundos para o Congresso Nacional Indiano através da venda ilegal de sal para a China.</t>
+          <t>Foi uma invasão militar direta e imediata da União Soviética, sem qualquer tentativa de processo político interno.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Provocar uma intervenção militar dos Estados Unidos ao bloquear os portos indianos.</t>
+          <t>O Partido Comunista venceu as eleições com 100% dos votos em 1946, estabelecendo um governo unipartidário pacificamente.</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Expor a injustiça de taxar um artigo de primeira necessidade, gerando publicidade negativa para a Grã-Bretanha e desafiando a lei imperial.</t>
+          <t>Após não obterem maioria nas eleições, os comunistas controlaram a polícia, forçaram a renúncia de oponentes e assumiram o controle total após a morte suspeita de Jan Masaryk.</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Iniciar uma revolta violenta nas províncias do sul para distrair o exército britânico.</t>
+          <t>A Tchecoslováquia manteve-se neutra e democrática durante todo o período, servindo como uma ponte entre o Oriente e o Ocidente.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Segundo o **primeiro e segundo parágrafos da Página 3**, a escolha "criou um grande impacto na Inglaterra" ao expor a taxa sobre um artigo de necessidade e foi um "claro desafio à lei".</t>
+          <t>De acordo com o **parágrafo da Página 2**, houve controle da polícia, renúncia de oponentes e a morte de Jan Masaryk, resultando em um ministério "apenas [com] comunistas".</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -6017,47 +6017,47 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Durante a Segunda Guerra Mundial, qual foi a posição dos Estados Unidos em relação ao domínio colonial britânico na Índia?</t>
+          <t>Qual foi a resposta dos Estados Unidos e da Grã-Bretanha ao bloqueio das linhas de suprimento de Berlim ordenado por Moscou em 1947?</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Os EUA apoiaram incondicionalmente a manutenção do Império Britânico para garantir a estabilidade global.</t>
+          <t>Iniciaram uma invasão militar terrestre através da zona soviética para reabrir as estradas à força.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Os EUA pressionaram pela independência da Índia, pois sua hostilidade ao conceito de colônia aumentava a probabilidade de uma Índia livre.</t>
+          <t>Abandonaram Berlim Ocidental, retirando suas tropas para evitar uma nova guerra mundial.</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Os EUA mantiveram-se neutros, considerando a questão da Índia um assunto interno exclusivo da Grã-Bretanha.</t>
+          <t>Organizaram um transporte aéreo (ponte aérea) que durou mais de um ano para enviar suprimentos à cidade.</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Os EUA propuseram que a Índia fosse transferida para a administração norte-americana após a guerra.</t>
+          <t>Impuseram um bloqueio naval total aos portos soviéticos no Mar Báltico e no Mar Negro.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 4**, a "hostilidade [dos EUA] em relação ao conceito de colônia... aumentava a probabilidade de a Índia se tornar independente".</t>
+          <t>Segundo o **segundo parágrafo do item da Página 3**, eles reagiram "enviar suprimentos por via aérea... Por mais de um ano, o transporte aéreo continuou".</t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -6073,37 +6073,37 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>O texto afirma que a divisão da antiga Índia britânica em duas nações (Índia e Paquistão) teve um efeito geopolítico decisivo e pouco comentado. Que efeito foi esse?</t>
+          <t>O texto menciona que a "cortina de ferro" teve exceções em sua homogeneidade política. Qual país foi expulso do Cominform em 1948 por "não rezar pela cartilha de Stalin"?</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>O aumento imediato do poder militar da região, superando a China e a União Soviética.</t>
+          <t>Polônia.</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>A redução drástica da influência potencial da Índia, que teria uma população maior que a da China se tivesse permanecido unida.</t>
+          <t>Iugoslávia.</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>A pacificação completa das tensões religiosas na Ásia, servindo de modelo para outros conflitos.</t>
+          <t>Hungria.</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>O fortalecimento da economia britânica, que continuou a administrar as finanças de ambos os países.</t>
+          <t>Alemanha Oriental.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 5 (seção 'A Criação de Duas Nações...')**, "A potencial influência da Índia subcontinental foi drasticamente reduzida pela divisão".</t>
+          <t>Conforme o **último parágrafo da Página 4 (item)**, a "Iugoslávia não rezava pela cartilha de Stalin e foi expulsa... em 1948".</t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -6129,37 +6129,37 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Como o texto caracteriza a liderança de Sukarno na Indonésia, comparando-o a Mahatma Gandhi?</t>
+          <t>Quem foi Andrei Sakharov e qual foi seu papel no contexto da Guerra Fria descrito no texto?</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sukarno era contemplativo e melancólico, preferindo a resistência passiva e o isolamento religioso.</t>
+          <t>Foi um espião americano que entregou segredos nucleares à União Soviética.</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Sukarno era enérgico e teatral, parecendo um mágico para o povo, mas ao contrário de Gandhi, não tinha nada de contemplativo.</t>
+          <t>Foi um jovem físico que liderou a pesquisa nuclear russa, contribuindo para o desenvolvimento da bomba de hidrogênio soviética.</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Sukarno era um burocrata sem carisma, que governava exclusivamente através de decretos militares.</t>
+          <t>Foi o diplomata responsável por negociar os primeiros tratados de desarmamento entre EUA e URSS.</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Sukarno rejeitava a modernização e a alfabetização, focando apenas na preservação das tradições balinesas.</t>
+          <t>Foi um dissidente político que impediu a União Soviética de desenvolver armas atômicas até a década de 1960.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 6**, Sukarno "parecia um mágico... Tal como Gandhi, era um tanto teatral, mas nada tinha de contemplativo".</t>
+          <t>Nos termos do **segundo parágrafo da Página 5 (item)**, "Sakharov liderou a pesquisa nuclear russa... a Rússia finalmente obteve sua bomba de hidrogênio".</t>
         </is>
       </c>
       <c r="K103" t="inlineStr"/>
@@ -6185,47 +6185,47 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Qual foi a política econômica adotada por Sukarno quando a população e ministros pediam mais dinheiro, e qual foi a consequência direta disso?</t>
+          <t>O que marcou o rompimento da aliança entre o Partido Comunista Chinês e o Partido Nacionalista (Kuomintang) em 1927?</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ele implementou medidas de austeridade fiscal, resultando em deflação e desemprego.</t>
+          <t>A invasão japonesa da Manchúria, que dividiu as opiniões sobre como defender o país.</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Ele mandou imprimir mais dinheiro, resultando em uma inflação onde os preços se multiplicaram centenas de vezes.</t>
+          <t>A morte do Dr. Sun Yat-sen e a disputa pela sucessão na liderança do partido.</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Ele confiscou as propriedades dos holandeses para redistribuir riqueza, estabilizando a moeda.</t>
+          <t>O massacre de comunistas e líderes sindicais em Xangai, ordenado pelo general Chiang Kai-shek.</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Ele adotou o padrão-ouro, impedindo o crescimento econômico mas controlando os preços.</t>
+          <t>A decisão de Mao Tsé-tung de se aliar à União Soviética contra a vontade dos nacionalistas.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 7**, "Sukarno mandava imprimir mais... Como resultado, os preços... tinham sido multiplicados centenas de vezes".</t>
+          <t>Segundo o **último parágrafo da Página 6 (item)**, Chiang Kai-shek concordou em expulsar os comunistas e "Em abril de 1927, em Xangai, muitos foram assassinados".</t>
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
@@ -6241,37 +6241,37 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Na África do Sul, o que marcou a política nacional especialmente após o ano de 1948?</t>
+          <t>Qual foi a consequência estratégica da "Longa Marcha" liderada por Mao Tsé-tung em 1935?</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A abolição imediata de todas as leis raciais e a integração das universidades.</t>
+          <t>A derrota total dos comunistas e o exílio de Mao Tsé-tung na União Soviética.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>A permeação da ideia de supremacia branca na política, com novas leis proibindo casamentos interraciais e restringindo direitos.</t>
+          <t>O estabelecimento de uma nova fortaleza isolada e inconquistável no norte da província de Shaanxi.</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>A ascensão de Nelson Mandela ao cargo de primeiro-ministro através de eleições diretas.</t>
+          <t>A captura da cidade de Xangai pelos comunistas e a expulsão dos nacionalistas para o mar.</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>A concessão de total autonomia às províncias negras, criando um estado federativo igualitário.</t>
+          <t>A unificação imediata da China sob um governo de coalizão entre Mao e Chiang Kai-shek.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 8**, "A ideia da supremacia branca permeou a política nacional, especialmente depois de 1948. Sob as novas leis...".</t>
+          <t>Conforme o **segundo parágrafo da Página 7 (item)**, a marcha salvou os comunistas e sua "nova e isolada fortaleza no norte... era inconquistável".</t>
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
@@ -6297,47 +6297,47 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Por que o novo governo francês, liderado por De Gaulle após a Segunda Guerra Mundial, estava ansioso por manter suas colônias, ao contrário da tendência britânica?</t>
+          <t>Após a vitória comunista na China em 1949, qual cenário geopolítico "provocou calafrios" nos líderes ocidentais?</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Porque a França precisava das colônias para deportar prisioneiros de guerra alemães.</t>
+          <t>A formação de um bloco comunista contínuo estendendo-se do Mediterrâneo até o Oceano Pacífico.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Porque as colônias eram vistas como essenciais para o prestígio e a recuperação psicológica da França após a derrota e rendição na guerra.</t>
+          <t>A declaração imediata de guerra da China contra o Japão e a Coreia do Sul.</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Porque a Constituição francesa proibia a concessão de independência a qualquer território.</t>
+          <t>O rompimento das relações entre a China de Mao e a União Soviética de Stalin.</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Porque os Estados Unidos exigiram que a França mantivesse suas colônias como condição para o Plano Marshall.</t>
+          <t>A aliança militar entre a China e a Índia para dominar o sul da Ásia.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 9**, as colônias "traziam prestígio, algo urgentemente necessário após o abatimento da rendição... papel importante na recuperação psicológica".</t>
+          <t>De acordo com o **segundo parágrafo da Página 8 (item)**, havia um "pedaço do território comunista estendia-se desde o Mediterrâneo... até as costas do Oceano Pacífico".</t>
         </is>
       </c>
       <c r="K106" t="inlineStr"/>
@@ -6353,47 +6353,47 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Como foi resolvida a questão da independência da Argélia em 1962?</t>
+          <t>Por que a União Soviética não vetou a resolução do Conselho de Segurança da ONU que autorizava uma operação militar na Coreia em 1950?</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Através de uma invasão militar das Nações Unidas que expulsou os franceses.</t>
+          <t>Porque Stalin acreditava que a intervenção da ONU falharia e enfraqueceria os Estados Unidos.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Por meio de um referendo votado tanto na França quanto em suas colônias, resultando na independência por ampla maioria.</t>
+          <t>Porque a União Soviética concordava que a Coreia do Norte era a agressora no conflito.</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Pela decisão unilateral de De Gaulle, que ignorou a opinião pública francesa.</t>
+          <t>Porque o representante russo havia abandonado o Conselho meses antes em protesto e estava ausente.</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Através da partilha do território, onde a região costeira permaneceu francesa e o interior tornou-se independente.</t>
+          <t>Porque a China comunista convenceu a União Soviética a permitir a intervenção para testar suas próprias forças.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 10**, a questão "foi resolvida por um referendo votado na França e em todas as suas colônias".</t>
+          <t>Segundo o **terceiro parágrafo da Página 9 (item)**, o representante russo "havia abandonado a organização... e continuava ausente. Assim... não pôde exercer seu direito de veto".</t>
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
@@ -6409,47 +6409,47 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>O que diferenciava Portugal das outras potências coloniais europeias em relação ao processo de descolonização até meados da década de 1970?</t>
+          <t>Que mudança na geografia política mundial foi evidenciada pelos eventos ocorridos na Ásia na década posterior à Segunda Guerra Mundial?</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Portugal libertou suas colônias voluntariamente logo após a Segunda Guerra Mundial.</t>
+          <t>O retorno do domínio colonial europeu sobre a Ásia, reafirmando a centralidade do Atlântico.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Portugal, sob regime autoritário, manteve praticamente todos os seus domínios, perdendo o império apenas após uma revolução democrática.</t>
+          <t>O isolamento total da Ásia, que deixou de ter relevância no cenário internacional.</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Portugal vendeu suas colônias para a África do Sul e para o Brasil para pagar dívidas de guerra.</t>
+          <t>O Oceano Pacífico começou a desafiar o Atlântico como o novo centro do poder internacional.</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Portugal transformou suas colônias em estados federados com plenos direitos de cidadania europeia em 1950.</t>
+          <t>A transferência do centro de poder mundial para o Oceano Índico devido à independência da Índia.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>De acordo com o **primeiro parágrafo da Página 11**, "Portugal... mantinha praticamente todos os domínios... acabou experimentando uma revolução democrática... [e] rapidamente perdeu seu império".</t>
+          <t>Conforme o **segundo parágrafo da Página 10 (item)**, o Oceano Pacífico "começava a desafiar o Atlântico como centro do poder internacional".</t>
         </is>
       </c>
       <c r="K108" t="inlineStr"/>
@@ -6470,32 +6470,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Qual foi a contribuição teórica do professor russo Konstantin Tsiolkovsky em 1903 para a exploração espacial, conforme descrito no texto?</t>
+          <t>Segundo o texto, por que a Alemanha obteve uma vantagem militar estratégica sobre a Grã-Bretanha e a França às vésperas da Segunda Guerra Mundial?</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ele construiu o primeiro foguete V-2 utilizado pela Alemanha na Segunda Guerra Mundial.</t>
+          <t>Porque a Alemanha havia conquistado colônias ricas em petróleo na África, garantindo suprimentos ilimitados.</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Ele calculou que um foguete usando combustível líquido poderia subir alto o bastante para entrar em órbita ao redor da Terra.</t>
+          <t>Porque a falta de colônias permitiu à Alemanha concentrar recursos em aeronaves, enquanto os aliados dispersavam forças e gastavam com grandes marinhas.</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Ele foi o primeiro cientista a lançar um satélite artificial, o Sputnik, antes da Primeira Guerra Mundial.</t>
+          <t>Porque a Alemanha assinou tratados de não agressão com as colônias britânicas, neutralizando-as.</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Ele provou matematicamente que a velocidade supersônica era impossível de ser atingida por objetos feitos pelo homem.</t>
+          <t>Porque a opinião pública nos países aliados forçou seus governos a abandonar as colônias antes da guerra começar.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 1**, Tsiolkovsky escreveu um livro onde, "De acordo com seus cálculos, um foguete que usasse combustível líquido poderia subir... para entrar em órbita".</t>
+          <t>Conforme o **segundo parágrafo da Página 1**, a manutenção do poder nos mares consumia recursos que poderiam ser usados em aeronaves, e a defesa das colônias levava à "dispersão de forças".</t>
         </is>
       </c>
       <c r="K109" t="inlineStr"/>
@@ -6526,42 +6526,42 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Durante a Segunda Guerra Mundial, como o texto diferencia os foguetes V-1 dos foguetes V-2 utilizados pela Alemanha?</t>
+          <t>As opiniões políticas de Mahatma Gandhi são descritas no texto como uma "colcha de retalhos". Quais autores ocidentais influenciaram a formação de seu pensamento?</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Os V-1 eram mísseis balísticos silenciosos de longo alcance, enquanto os V-2 eram pequenos e usados apenas em combates aéreos.</t>
+          <t>Karl Marx, Friedrich Engels e Vladimir Lenin.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Os V-1 eram complexos e invisíveis a olho nu, enquanto os V-2 eram foguetes simples impulsionados por pistão.</t>
+          <t>Henry Thoreau, John Ruskin e Leon Tolstoi.</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Os V-1 eram simples, barulhentos e visíveis como "barcos em uma regata", enquanto os V-2 eram maiores, levavam uma ogiva de uma tonelada e eram revolucionários.</t>
+          <t>Winston Churchill, John Locke e Adam Smith.</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Ambos eram idênticos em tecnologia, diferenciando-se apenas pela cor da fuselagem para identificar o local de fabricação.</t>
+          <t>Jean-Jacques Rousseau, Voltaire e Montesquieu.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 2**, os V-1 eram "bastante simples, barulhentos e visíveis", enquanto os "revolucionários V-2 levavam uma ogiva que pesava aproximadamente uma tonelada".</t>
+          <t>De acordo com o **segundo parágrafo da Página 2 (seção 'Uma Bússola...')**, Gandhi admirava "Henry Thoreau... John Ruskin... e o romancista russo Leon Tolstoi".</t>
         </is>
       </c>
       <c r="K110" t="inlineStr"/>
@@ -6582,32 +6582,32 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Qual foi o destino de Wernher von Braun e sua equipe de especialistas em foguetes ao final da Segunda Guerra Mundial?</t>
+          <t>Qual foi o objetivo estratégico e o impacto da "Marcha do Sal" liderada por Gandhi em 1930?</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Foram capturados pelos soviéticos e enviados para trabalhar nas minas de ouro da Sibéria junto com Sergei Korolev.</t>
+          <t>Arrecadar fundos para o Congresso Nacional Indiano através da venda ilegal de sal para a China.</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Conseguiram fugir para a América do Sul, onde continuaram seus experimentos em segredo.</t>
+          <t>Provocar uma intervenção militar dos Estados Unidos ao bloquear os portos indianos.</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Preferiram ser capturados pelos norte-americanos, tornando-se um dos principais "troféus" da vitória para os Estados Unidos.</t>
+          <t>Expor a injustiça de taxar um artigo de primeira necessidade, gerando publicidade negativa para a Grã-Bretanha e desafiando a lei imperial.</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Foram executados por ordem de Hitler para que seus segredos não caíssem em mãos inimigas.</t>
+          <t>Iniciar uma revolta violenta nas províncias do sul para distrair o exército britânico.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 3**, uma equipe de 116 especialistas "caiu nas mãos dos norte-americanos - de fato, preferiam ser capturados por eles".</t>
+          <t>Segundo o **primeiro e segundo parágrafos da Página 3**, a escolha "criou um grande impacto na Inglaterra" ao expor a taxa sobre um artigo de necessidade e foi um "claro desafio à lei".</t>
         </is>
       </c>
       <c r="K111" t="inlineStr"/>
@@ -6638,32 +6638,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Qual foi o impacto psicológico e político do lançamento do Sputnik I nos Estados Unidos?</t>
+          <t>Durante a Segunda Guerra Mundial, qual foi a posição dos Estados Unidos em relação ao domínio colonial britânico na Índia?</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Foi ignorado pela mídia e pelo governo, pois o satélite era muito pequeno para ter importância estratégica.</t>
+          <t>Os EUA apoiaram incondicionalmente a manutenção do Império Britânico para garantir a estabilidade global.</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Causou choque e humilhação, pois os EUA se consideravam o maior poder militar e dínamo da inventividade, e propagavam que o comunismo bloqueava a criação.</t>
+          <t>Os EUA pressionaram pela independência da Índia, pois sua hostilidade ao conceito de colônia aumentava a probabilidade de uma Índia livre.</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Foi celebrado como uma vitória da humanidade, levando a uma cooperação imediata entre Washington e Moscou.</t>
+          <t>Os EUA mantiveram-se neutros, considerando a questão da Índia um assunto interno exclusivo da Grã-Bretanha.</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Gerou alívio, pois provou que a União Soviética não tinha intenções militares com seu programa espacial.</t>
+          <t>Os EUA propuseram que a Índia fosse transferida para a administração norte-americana após a guerra.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Conforme o **terceiro parágrafo da Página 4**, "O choque sentido pelos Estados Unidos foi intenso... Washington sofria uma humilhação justamente no momento em que espalhava... que o comunismo... bloqueava a criação".</t>
+          <t>Conforme o **segundo parágrafo da Página 4**, a "hostilidade [dos EUA] em relação ao conceito de colônia... aumentava a probabilidade de a Índia se tornar independente".</t>
         </is>
       </c>
       <c r="K112" t="inlineStr"/>
@@ -6694,42 +6694,42 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Dentre os desafios físicos e fisiológicos para enviar um ser humano ao espaço mencionados no texto, qual medida específica foi tomada em relação à alimentação?</t>
+          <t>O texto afirma que a divisão da antiga Índia britânica em duas nações (Índia e Paquistão) teve um efeito geopolítico decisivo e pouco comentado. Que efeito foi esse?</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Os astronautas deveriam caçar e cultivar seu próprio alimento em estufas dentro da nave.</t>
+          <t>O aumento imediato do poder militar da região, superando a China e a União Soviética.</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>A comida deveria ser líquida e injetada diretamente na veia para evitar o enjoo espacial.</t>
+          <t>A redução drástica da influência potencial da Índia, que teria uma população maior que a da China se tivesse permanecido unida.</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Os alimentos deveriam ser preparados em pequenos cubos e cobertos com gelatina para evitar que migalhas flutuassem e danificassem os instrumentos.</t>
+          <t>A pacificação completa das tensões religiosas na Ásia, servindo de modelo para outros conflitos.</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>A alimentação foi suspensa durante os voos, pois o corpo humano não consegue digerir comida na ausência de gravidade.</t>
+          <t>O fortalecimento da economia britânica, que continuou a administrar as finanças de ambos os países.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Segundo o **último parágrafo da Página 5**, uma das providências era "preparar todos os alimentos em pequenos cubos e cobri-los com gelatina".</t>
+          <t>De acordo com o **segundo parágrafo da Página 5 (seção 'A Criação de Duas Nações...')**, "A potencial influência da Índia subcontinental foi drasticamente reduzida pela divisão".</t>
         </is>
       </c>
       <c r="K113" t="inlineStr"/>
@@ -6750,32 +6750,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Qual relação estratégica entre a exploração espacial e o poderio militar é destacada no texto após o voo de Gagarin?</t>
+          <t>Como o texto caracteriza a liderança de Sukarno na Indonésia, comparando-o a Mahatma Gandhi?</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A tecnologia espacial provou ser inútil para fins militares, servindo apenas para prestígio nacional.</t>
+          <t>Sukarno era contemplativo e melancólico, preferindo a resistência passiva e o isolamento religioso.</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Um foguete capaz de impulsionar uma nave espacial também poderia lançar um míssil com ogiva nuclear.</t>
+          <t>Sukarno era enérgico e teatral, parecendo um mágico para o povo, mas ao contrário de Gandhi, não tinha nada de contemplativo.</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Os foguetes espaciais eram muito lentos para serem usados como armas de guerra eficazes.</t>
+          <t>Sukarno era um burocrata sem carisma, que governava exclusivamente através de decretos militares.</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>O tratado de paz assinado em 1961 proibiu o uso de tecnologia de foguetes para qualquer fim que não fosse a exploração lunar.</t>
+          <t>Sukarno rejeitava a modernização e a alfabetização, focando apenas na preservação das tradições balinesas.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Conforme o **terceiro parágrafo da Página 6**, "Um foguete que servisse de propulsor para uma nave espacial poderia fazer o mesmo com um míssil carregando uma ogiva nuclear".</t>
+          <t>Segundo o **segundo parágrafo da Página 6**, Sukarno "parecia um mágico... Tal como Gandhi, era um tanto teatral, mas nada tinha de contemplativo".</t>
         </is>
       </c>
       <c r="K114" t="inlineStr"/>
@@ -6806,42 +6806,42 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Quem foi Gary Powers e qual o seu envolvimento nas tensões da Guerra Fria descritas no capítulo?</t>
+          <t>Qual foi a política econômica adotada por Sukarno quando a população e ministros pediam mais dinheiro, e qual foi a consequência direta disso?</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Foi o primeiro astronauta americano a orbitar a Terra, respondendo ao sucesso de Yuri Gagarin.</t>
+          <t>Ele implementou medidas de austeridade fiscal, resultando em deflação e desemprego.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Era um diplomata britânico que negociou a troca de prisioneiros entre a CIA e a KGB.</t>
+          <t>Ele mandou imprimir mais dinheiro, resultando em uma inflação onde os preços se multiplicaram centenas de vezes.</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Foi um piloto da CIA abatido enquanto pilotava um avião de espionagem sobre a União Soviética em 1960.</t>
+          <t>Ele confiscou as propriedades dos holandeses para redistribuir riqueza, estabilizando a moeda.</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Era o engenheiro chefe responsável pelo projeto do Muro de Berlim no lado ocidental.</t>
+          <t>Ele adotou o padrão-ouro, impedindo o crescimento econômico mas controlando os preços.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>De acordo com o **último parágrafo da Página 7**, "Gary Powers, a serviço da... CIA... sobrevoava os Urais... quando foi detectado pelos russos e abatido".</t>
+          <t>Conforme o **segundo parágrafo da Página 7**, "Sukarno mandava imprimir mais... Como resultado, os preços... tinham sido multiplicados centenas de vezes".</t>
         </is>
       </c>
       <c r="K115" t="inlineStr"/>
@@ -6862,32 +6862,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Qual foi a motivação principal para a construção do Muro de Berlim pela Alemanha Oriental em 1961?</t>
+          <t>Na África do Sul, o que marcou a política nacional especialmente após o ano de 1948?</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Impedir a entrada de espiões ocidentais que tentavam sabotar as indústrias da Alemanha Oriental.</t>
+          <t>A abolição imediata de todas as leis raciais e a integração das universidades.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Conter a fuga de habitantes da Alemanha Oriental para o lado ocidental, que chegava a 10 mil por mês em busca de melhores condições de vida.</t>
+          <t>A permeação da ideia de supremacia branca na política, com novas leis proibindo casamentos interraciais e restringindo direitos.</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Demarcar a área onde seriam instalados mísseis nucleares soviéticos apontados para Paris e Londres.</t>
+          <t>A ascensão de Nelson Mandela ao cargo de primeiro-ministro através de eleições diretas.</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Proteger a população de Berlim Oriental de uma iminente invasão militar planejada por John F. Kennedy.</t>
+          <t>A concessão de total autonomia às províncias negras, criando um estado federativo igualitário.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 8**, Berlim Ocidental era destino de fugitivos (10 mil por mês) e o parlamento oriental resolveu "colocar guardas... [e] construir uma larga proteção", o muro, para estancar a perda de habitantes.</t>
+          <t>De acordo com o **segundo parágrafo da Página 8**, "A ideia da supremacia branca permeou a política nacional, especialmente depois de 1948. Sob as novas leis...".</t>
         </is>
       </c>
       <c r="K116" t="inlineStr"/>
@@ -6913,37 +6913,37 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>De acordo com o texto, qual era a situação geopolítica dos Estados Unidos em relação aos seus vizinhos imediatos e sua segurança geográfica antes da ascensão de Castro?</t>
+          <t>Por que o novo governo francês, liderado por De Gaulle após a Segunda Guerra Mundial, estava ansioso por manter suas colônias, ao contrário da tendência britânica?</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>O país estava cercado por potências militares hostis tanto ao norte quanto ao sul, dependendo exclusivamente de seu arsenal nuclear.</t>
+          <t>Porque a França precisava das colônias para deportar prisioneiros de guerra alemães.</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>O país desfrutava da proteção de dois oceanos e tinha apenas três vizinhos que perdiam em qualquer comparação populacional ou econômica.</t>
+          <t>Porque as colônias eram vistas como essenciais para o prestígio e a recuperação psicológica da França após a derrota e rendição na guerra.</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>O México representava uma ameaça militar constante, enquanto o Canadá mantinha uma neutralidade hostil.</t>
+          <t>Porque a Constituição francesa proibia a concessão de independência a qualquer território.</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>A segurança dos EUA dependia da ocupação militar permanente de Cuba, que era uma grande potência regional.</t>
+          <t>Porque os Estados Unidos exigiram que a França mantivesse suas colônias como condição para o Plano Marshall.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 1**, o país tinha a proteção dos oceanos e "tinha somente três vizinhos de peso, que perdiam em qualquer comparação... Canadá... México... e Cuba".</t>
+          <t>Segundo o **segundo parágrafo da Página 9**, as colônias "traziam prestígio, algo urgentemente necessário após o abatimento da rendição... papel importante na recuperação psicológica".</t>
         </is>
       </c>
       <c r="K117" t="inlineStr"/>
@@ -6969,47 +6969,47 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Qual medida econômica adotada pelos Estados Unidos em reação às nacionalizações promovidas por Fidel Castro empurrou Cuba para a esfera de influência soviética?</t>
+          <t>Como foi resolvida a questão da independência da Argélia em 1962?</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>O bloqueio naval total da ilha, impedindo a entrada de petróleo e alimentos.</t>
+          <t>Através de uma invasão militar das Nações Unidas que expulsou os franceses.</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>A invasão militar imediata da Baía dos Porcos para recuperar as propriedades confiscadas.</t>
+          <t>Por meio de um referendo votado tanto na França quanto em suas colônias, resultando na independência por ampla maioria.</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>O cancelamento da preferência que permitia ao açúcar cubano ser vendido no mercado norte-americano.</t>
+          <t>Pela decisão unilateral de De Gaulle, que ignorou a opinião pública francesa.</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>O congelamento de todos os ativos bancários cubanos na Europa.</t>
+          <t>Através da partilha do território, onde a região costeira permaneceu francesa e o interior tornou-se independente.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Segundo o **primeiro parágrafo da Página 2**, "Os Estados Unidos reagiram, cancelando a valiosa preferência... do açúcar cubano... Economicamente, essa decisão jogou Cuba nos braços da União Soviética".</t>
+          <t>Conforme o **segundo parágrafo da Página 10**, a questão "foi resolvida por um referendo votado na França e em todas as suas colônias".</t>
         </is>
       </c>
       <c r="K118" t="inlineStr"/>
@@ -7025,37 +7025,37 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Segundo o texto, além da falta de uma base próxima aos EUA, que evento anterior motivou Nikita Khrushchov a instalar mísseis em Cuba como uma resposta estratégica?</t>
+          <t>O que diferenciava Portugal das outras potências coloniais europeias em relação ao processo de descolonização até meados da década de 1970?</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>A tentativa de assassinato de Fidel Castro pela CIA.</t>
+          <t>Portugal libertou suas colônias voluntariamente logo após a Segunda Guerra Mundial.</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>A instalação de mísseis Júpiter pelos Estados Unidos na Turquia, perto da fronteira russa.</t>
+          <t>Portugal, sob regime autoritário, manteve praticamente todos os seus domínios, perdendo o império apenas após uma revolução democrática.</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>O bloqueio do Canal de Suez pelas potências ocidentais.</t>
+          <t>Portugal vendeu suas colônias para a África do Sul e para o Brasil para pagar dívidas de guerra.</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>A derrota soviética na corrida espacial para chegar à Lua.</t>
+          <t>Portugal transformou suas colônias em estados federados com plenos direitos de cidadania europeia em 1950.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 3**, Washington o havia provocado "ao instalar mísseis Júpiter na Turquia... Tinha chegado a vez de Khrushchov responder".</t>
+          <t>De acordo com o **primeiro parágrafo da Página 11**, "Portugal... mantinha praticamente todos os domínios... acabou experimentando uma revolução democrática... [e] rapidamente perdeu seu império".</t>
         </is>
       </c>
       <c r="K119" t="inlineStr"/>
@@ -7081,37 +7081,37 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Diante da descoberta de mísseis soviéticos em Cuba capazes de atingir Washington, qual foi a estratégia militar adotada pelo presidente Kennedy em outubro de 1962?</t>
+          <t>Qual foi a contribuição teórica do professor russo Konstantin Tsiolkovsky em 1903 para a exploração espacial, conforme descrito no texto?</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Ordenou um ataque aéreo cirúrgico para destruir as bases de mísseis antes que se tornassem operacionais.</t>
+          <t>Ele construiu o primeiro foguete V-2 utilizado pela Alemanha na Segunda Guerra Mundial.</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Decidiu cercar Cuba com uma força naval para bloquear e inspecionar a chegada de carregamentos bélicos soviéticos.</t>
+          <t>Ele calculou que um foguete usando combustível líquido poderia subir alto o bastante para entrar em órbita ao redor da Terra.</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Invadiu Cuba com tropas terrestres para depor Fidel Castro imediatamente.</t>
+          <t>Ele foi o primeiro cientista a lançar um satélite artificial, o Sputnik, antes da Primeira Guerra Mundial.</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Apresentou uma rendição diplomática, aceitando a presença dos mísseis em troca da paz em Berlim.</t>
+          <t>Ele provou matematicamente que a velocidade supersônica era impossível de ser atingida por objetos feitos pelo homem.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 4**, Kennedy "decidiu então cercar Cuba com uma grande força naval capaz de deter e inspecionar a chegada de carregamentos".</t>
+          <t>Conforme o **primeiro parágrafo da Página 1**, Tsiolkovsky escreveu um livro onde, "De acordo com seus cálculos, um foguete que usasse combustível líquido poderia subir... para entrar em órbita".</t>
         </is>
       </c>
       <c r="K120" t="inlineStr"/>
@@ -7137,47 +7137,47 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Qual foi a reflexão do historiador Arnold Toynbee sobre o perigo enfrentado pela humanidade durante a crise dos mísseis, comparando-a a épocas primitivas?</t>
+          <t>Durante a Segunda Guerra Mundial, como o texto diferencia os foguetes V-1 dos foguetes V-2 utilizados pela Alemanha?</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>A humanidade estava mais segura agora do que na época dos tigres, graças à tecnologia de defesa.</t>
+          <t>Os V-1 eram mísseis balísticos silenciosos de longo alcance, enquanto os V-2 eram pequenos e usados apenas em combates aéreos.</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>As chances de sobrevivência eram maiores quando estávamos indefesos contra tigres do que quando nos tornamos indefesos contra nós mesmos.</t>
+          <t>Os V-1 eram complexos e invisíveis a olho nu, enquanto os V-2 eram foguetes simples impulsionados por pistão.</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>A sobrevivência humana independe das armas nucleares, sendo garantida pela diplomacia moderna.</t>
+          <t>Os V-1 eram simples, barulhentos e visíveis como "barcos em uma regata", enquanto os V-2 eram maiores, levavam uma ogiva de uma tonelada e eram revolucionários.</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>O perigo nuclear era exagerado, sendo menor do que as ameaças naturais enfrentadas pelos ancestrais humanos.</t>
+          <t>Ambos eram idênticos em tecnologia, diferenciando-se apenas pela cor da fuselagem para identificar o local de fabricação.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Nos termos do **segundo parágrafo da Página 5**, Toynbee afirmou: "As perspectivas de sobrevivência... eram consideravelmente maiores quando estávamos indefesos contra tigres... do que hoje".</t>
+          <t>Segundo o **segundo parágrafo da Página 2**, os V-1 eram "bastante simples, barulhentos e visíveis", enquanto os "revolucionários V-2 levavam uma ogiva que pesava aproximadamente uma tonelada".</t>
         </is>
       </c>
       <c r="K121" t="inlineStr"/>
@@ -7193,37 +7193,37 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Quais ações tomadas por Nasser em maio de 1967, em relação às forças internacionais e ao comércio israelense, aumentaram a tensão no Oriente Médio?</t>
+          <t>Qual foi o destino de Wernher von Braun e sua equipe de especialistas em foguetes ao final da Segunda Guerra Mundial?</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Nasser nacionalizou o Canal de Suez e proibiu a passagem de navios norte-americanos.</t>
+          <t>Foram capturados pelos soviéticos e enviados para trabalhar nas minas de ouro da Sibéria junto com Sergei Korolev.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Nasser assinou um tratado de paz com Israel e abriu as fronteiras para o comércio livre.</t>
+          <t>Conseguiram fugir para a América do Sul, onde continuaram seus experimentos em segredo.</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Nasser mandou embora os soldados da ONU da Faixa de Gaza e impediu cargueiros israelenses de usar o porto de Eilat.</t>
+          <t>Preferiram ser capturados pelos norte-americanos, tornando-se um dos principais "troféus" da vitória para os Estados Unidos.</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Nasser bombardeou Tel Aviv preventivamente e invadiu a Jordânia.</t>
+          <t>Foram executados por ordem de Hitler para que seus segredos não caíssem em mãos inimigas.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 6**, Nasser "mandou-os [soldados da ONU] embora. Em seguida impediu os cargueiros israelenses de entrar no porto de Eilat".</t>
+          <t>De acordo com o **segundo parágrafo da Página 3**, uma equipe de 116 especialistas "caiu nas mãos dos norte-americanos - de fato, preferiam ser capturados por eles".</t>
         </is>
       </c>
       <c r="K122" t="inlineStr"/>
@@ -7249,47 +7249,47 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Qual foi a consequência logística imediata do fechamento do Canal de Suez após o conflito de 1967 para o transporte de petróleo rumo à Europa e América do Norte?</t>
+          <t>Qual foi o impacto psicológico e político do lançamento do Sputnik I nos Estados Unidos?</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>O transporte de petróleo foi interrompido, causando uma crise de desabastecimento global.</t>
+          <t>Foi ignorado pela mídia e pelo governo, pois o satélite era muito pequeno para ter importância estratégica.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Os navios passaram a utilizar o Canal do Panamá, que foi alargado para a ocasião.</t>
+          <t>Causou choque e humilhação, pois os EUA se consideravam o maior poder militar e dínamo da inventividade, e propagavam que o comunismo bloqueava a criação.</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>As embarcações tiveram que fazer uma longa rota de desvio pelo Cabo da Boa Esperança, exigindo a construção de navios maiores.</t>
+          <t>Foi celebrado como uma vitória da humanidade, levando a uma cooperação imediata entre Washington e Moscou.</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>O petróleo passou a ser transportado exclusivamente por oleodutos através da União Soviética.</t>
+          <t>Gerou alívio, pois provou que a União Soviética não tinha intenções militares com seu programa espacial.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 7**, as embarcações passaram a fazer uma rota de desvio: "cruzar a linha do Equador, navegar as fortes ondas do Cabo da Boa Esperança... exigiu a construção de navios grandes".</t>
+          <t>Conforme o **terceiro parágrafo da Página 4**, "O choque sentido pelos Estados Unidos foi intenso... Washington sofria uma humilhação justamente no momento em que espalhava... que o comunismo... bloqueava a criação".</t>
         </is>
       </c>
       <c r="K123" t="inlineStr"/>
@@ -7305,37 +7305,37 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Em relação à exploração de Marte, o que a missão da nave norte-americana Mariner 4, em 1965, revelou em contraste com as teorias anteriores de Giovanni Schiaparelli?</t>
+          <t>Dentre os desafios físicos e fisiológicos para enviar um ser humano ao espaço mencionados no texto, qual medida específica foi tomada em relação à alimentação?</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Confirmou a existência de canais de irrigação, mas estavam secos e abandonados.</t>
+          <t>Os astronautas deveriam caçar e cultivar seu próprio alimento em estufas dentro da nave.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Detectou sinais claros de vida microbiana no subsolo do planeta.</t>
+          <t>A comida deveria ser líquida e injetada diretamente na veia para evitar o enjoo espacial.</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Não detectou sinal de vida, revelando um terreno frio e avermelhado, refutando a ideia de canais construídos por seres inteligentes.</t>
+          <t>Os alimentos deveriam ser preparados em pequenos cubos e cobertos com gelatina para evitar que migalhas flutuassem e danificassem os instrumentos.</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Descobriu vastas florestas fossilizadas, indicando vida em um passado remoto.</t>
+          <t>A alimentação foi suspensa durante os voos, pois o corpo humano não consegue digerir comida na ausência de gravidade.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 8**, a Mariner 4 "não detectou sinal de vida... revelara um terreno frio e avermelhado", contrariando a tese de "obra de seres inteligentes" de Schiaparelli.</t>
+          <t>Segundo o **último parágrafo da Página 5**, uma das providências era "preparar todos os alimentos em pequenos cubos e cobri-los com gelatina".</t>
         </is>
       </c>
       <c r="K124" t="inlineStr"/>
@@ -7361,37 +7361,37 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Em 1973, os Estados Unidos assinaram um cessar-fogo no Vietnã. De acordo com o texto, qual era a situação contrastante entre os blocos comunista e capitalista naquele momento?</t>
+          <t>Qual relação estratégica entre a exploração espacial e o poderio militar é destacada no texto após o voo de Gagarin?</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Os Estados Unidos saíram vitoriosos do Vietnã, enquanto a União Soviética enfrentava uma revolta armada em Moscou.</t>
+          <t>A tecnologia espacial provou ser inútil para fins militares, servindo apenas para prestígio nacional.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>O Vietnã representou uma vitória comunista, e os líderes soviéticos não imaginavam que uma grande derrota interna se aproximava.</t>
+          <t>Um foguete capaz de impulsionar uma nave espacial também poderia lançar um míssil com ogiva nuclear.</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>A conquista da Lua pagou todos os custos da Guerra do Vietnã, estabilizando a economia norte-americana.</t>
+          <t>Os foguetes espaciais eram muito lentos para serem usados como armas de guerra eficazes.</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Os países-satélites da URSS, como a Polônia e a Hungria, já haviam declarado independência em 1973.</t>
+          <t>O tratado de paz assinado em 1961 proibiu o uso de tecnologia de foguetes para qualquer fim que não fosse a exploração lunar.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 1**, o Vietnã foi a última grande vitória comunista, mas os líderes russos "nem imaginavam que viriam a uma imensa derrota em casa".</t>
+          <t>Conforme o **terceiro parágrafo da Página 6**, "Um foguete que servisse de propulsor para uma nave espacial poderia fazer o mesmo com um míssil carregando uma ogiva nuclear".</t>
         </is>
       </c>
       <c r="K125" t="inlineStr"/>
@@ -7417,37 +7417,37 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>O texto descreve a sociedade soviética na década de 1970 como marcada por desigualdades. Qual das alternativas abaixo descreve corretamente a situação dos privilégios e do abastecimento?</t>
+          <t>Quem foi Gary Powers e qual o seu envolvimento nas tensões da Guerra Fria descritas no capítulo?</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Todos os cidadãos, desde mineiros até funcionários do partido, tinham acesso igualitário a carros e casas de campo.</t>
+          <t>Foi o primeiro astronauta americano a orbitar a Terra, respondendo ao sucesso de Yuri Gagarin.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>A economia de mercado funcionava livremente, garantindo abundância de frutas e vegetais frescos durante todo o ano.</t>
+          <t>Era um diplomata britânico que negociou a troca de prisioneiros entre a CIA e a KGB.</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Havia uma elite de funcionários com limusines e privilégios, enquanto o cidadão comum enfrentava apartamentos apertados e filas para comida.</t>
+          <t>Foi um piloto da CIA abatido enquanto pilotava um avião de espionagem sobre a União Soviética em 1960.</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>O chefe de estado, Leonid Brejnev, admitia publicamente que o país estava estagnado e perdeu a corrida espacial.</t>
+          <t>Era o engenheiro chefe responsável pelo projeto do Muro de Berlim no lado ocidental.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 2**, "Algumas centenas de funcionários... estavam confortavelmente instalados bem no topo... Seus chalés... eram mais do que simples cabanas", contrastando com o cidadão comum.</t>
+          <t>De acordo com o **último parágrafo da Página 7**, "Gary Powers, a serviço da... CIA... sobrevoava os Urais... quando foi detectado pelos russos e abatido".</t>
         </is>
       </c>
       <c r="K126" t="inlineStr"/>
@@ -7473,47 +7473,47 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Durante a gestão de Leonid Brejnev, como o texto caracteriza a corrida armamentista e as tentativas diplomáticas de controle?</t>
+          <t>Qual foi a motivação principal para a construção do Muro de Berlim pela Alemanha Oriental em 1961?</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>A corrida armamentista cessou completamente, pois os mísseis não conseguiam viajar mais de 100 quilômetros.</t>
+          <t>Impedir a entrada de espiões ocidentais que tentavam sabotar as indústrias da Alemanha Oriental.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Brejnev recusou-se a negociar com qualquer presidente norte-americano, preferindo o isolamento total.</t>
+          <t>Conter a fuga de habitantes da Alemanha Oriental para o lado ocidental, que chegava a 10 mil por mês em busca de melhores condições de vida.</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>O perigo de destruição mútua levou a tratados de limitação de mísseis (1972 e 1979), gerando em Washington a impressão de perda de vantagens militares.</t>
+          <t>Demarcar a área onde seriam instalados mísseis nucleares soviéticos apontados para Paris e Londres.</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>A União Soviética desmantelou unilateralmente seus submarinos nucleares em sinal de paz.</t>
+          <t>Proteger a população de Berlim Oriental de uma iminente invasão militar planejada por John F. Kennedy.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da Página 3**, o custo e o perigo levaram a tratados em 1972 e 1979, e as negociações de Brejnev causaram "uma forte impressão... de que os Estados Unidos estavam perdendo algumas vantagens".</t>
+          <t>Segundo o **terceiro parágrafo da Página 8**, Berlim Ocidental era destino de fugitivos (10 mil por mês) e o parlamento oriental resolveu "colocar guardas... [e] construir uma larga proteção", o muro, para estancar a perda de habitantes.</t>
         </is>
       </c>
       <c r="K127" t="inlineStr"/>
@@ -7529,47 +7529,47 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Apesar da força aparente do comunismo em várias regiões na década de 1970, o texto destaca um evento trágico no Camboja sob o regime de Pol Pot. O que ocorreu nesse país entre 1975 e 1978?</t>
+          <t>De acordo com o texto, qual era a situação geopolítica dos Estados Unidos em relação aos seus vizinhos imediatos e sua segurança geográfica antes da ascensão de Castro?</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Uma transição pacífica para a democracia com apoio das Nações Unidas.</t>
+          <t>O país estava cercado por potências militares hostis tanto ao norte quanto ao sul, dependendo exclusivamente de seu arsenal nuclear.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Um rápido desenvolvimento industrial que eliminou a fome na região.</t>
+          <t>O país desfrutava da proteção de dois oceanos e tinha apenas três vizinhos que perdiam em qualquer comparação populacional ou econômica.</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Um genocídio onde cerca de 20% da população morreu por exaustão, fome, doenças ou execuções.</t>
+          <t>O México representava uma ameaça militar constante, enquanto o Canadá mantinha uma neutralidade hostil.</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>A expulsão de todos os comunistas do governo pelo príncipe Sihanouk.</t>
+          <t>A segurança dos EUA dependia da ocupação militar permanente de Cuba, que era uma grande potência regional.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 4**, sob Pol Pot, "um enorme número de pessoas morreu... o número de mortos chegava perto dos 2 milhões, ou seja, 20% da população".</t>
+          <t>Conforme o **primeiro parágrafo da Página 1**, o país tinha a proteção dos oceanos e "tinha somente três vizinhos de peso, que perdiam em qualquer comparação... Canadá... México... e Cuba".</t>
         </is>
       </c>
       <c r="K128" t="inlineStr"/>
@@ -7585,47 +7585,47 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>A eleição de um papa polonês em 1978 foi vista como um movimento estratégico pelo Colégio dos Cardeais. Qual foi a interpretação política dessa escolha citada no texto?</t>
+          <t>Qual medida econômica adotada pelos Estados Unidos em reação às nacionalizações promovidas por Fidel Castro empurrou Cuba para a esfera de influência soviética?</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Acreditava-se que, ao eleger um europeu do leste, enviariam os "soldados de Cristo" para o coração do comunismo em um momento crucial.</t>
+          <t>O bloqueio naval total da ilha, impedindo a entrada de petróleo e alimentos.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Foi uma escolha puramente acidental, pois não havia candidatos italianos disponíveis na época.</t>
+          <t>A invasão militar imediata da Baía dos Porcos para recuperar as propriedades confiscadas.</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>O objetivo era agradar a União Soviética, escolhendo um líder religioso de um país alinhado a Moscou.</t>
+          <t>O cancelamento da preferência que permitia ao açúcar cubano ser vendido no mercado norte-americano.</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>A intenção era afastar a Igreja Católica dos assuntos políticos da Europa Oriental.</t>
+          <t>O congelamento de todos os ativos bancários cubanos na Europa.</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 5**, fontes afirmam que acreditavam que, "elegendo um europeu do leste enviariam os soldados de Cristo para o coração do comunismo".</t>
+          <t>Segundo o **primeiro parágrafo da Página 2**, "Os Estados Unidos reagiram, cancelando a valiosa preferência... do açúcar cubano... Economicamente, essa decisão jogou Cuba nos braços da União Soviética".</t>
         </is>
       </c>
       <c r="K129" t="inlineStr"/>
@@ -7641,37 +7641,37 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Em 1980, surgiu na Polônia o Movimento Solidariedade, liderado por Lech Walesa. Qual reivindicação feita por esse grupo era considerada inédita em países comunistas?</t>
+          <t>Segundo o texto, além da falta de uma base próxima aos EUA, que evento anterior motivou Nikita Khrushchov a instalar mísseis em Cuba como uma resposta estratégica?</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>O direito à propriedade privada de grandes indústrias estatais.</t>
+          <t>A tentativa de assassinato de Fidel Castro pela CIA.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>O direito à greve, algo que não existia nos regimes comunistas.</t>
+          <t>A instalação de mísseis Júpiter pelos Estados Unidos na Turquia, perto da fronteira russa.</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>A dissolução imediata do exército polonês.</t>
+          <t>O bloqueio do Canal de Suez pelas potências ocidentais.</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>A proibição da prática do catolicismo na Polônia.</t>
+          <t>A derrota soviética na corrida espacial para chegar à Lua.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 6**, o Movimento Solidariedade "reivindicava o direito à greve - algo que não existia em países comunistas".</t>
+          <t>De acordo com o **segundo parágrafo da Página 3**, Washington o havia provocado "ao instalar mísseis Júpiter na Turquia... Tinha chegado a vez de Khrushchov responder".</t>
         </is>
       </c>
       <c r="K130" t="inlineStr"/>
@@ -7697,37 +7697,37 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Ao assumir a presidência dos EUA, Ronald Reagan propôs a "Iniciativa Estratégica de Defesa". Qual era o objetivo desse projeto, segundo o texto?</t>
+          <t>Diante da descoberta de mísseis soviéticos em Cuba capazes de atingir Washington, qual foi a estratégia militar adotada pelo presidente Kennedy em outubro de 1962?</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Reduzir drasticamente os gastos militares para focar em programas sociais.</t>
+          <t>Ordenou um ataque aéreo cirúrgico para destruir as bases de mísseis antes que se tornassem operacionais.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Criar um sistema de defesa com armas em solo, mar e espaço para interceptar ataques de mísseis russos.</t>
+          <t>Decidiu cercar Cuba com uma força naval para bloquear e inspecionar a chegada de carregamentos bélicos soviéticos.</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Enviar tropas terrestres para invadir a União Soviética através do Alasca.</t>
+          <t>Invadiu Cuba com tropas terrestres para depor Fidel Castro imediatamente.</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Estabelecer uma base lunar permanente para mineração de recursos.</t>
+          <t>Apresentou uma rendição diplomática, aceitando a presença dos mísseis em troca da paz em Berlim.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>De acordo com o **primeiro parágrafo da Página 7**, o plano (Guerra nas Estrelas) previa que armas "prontas em solo, no mar e no espaço, poderiam interceptar qualquer ataque de mísseis russos".</t>
+          <t>Conforme o **segundo parágrafo da Página 4**, Kennedy "decidiu então cercar Cuba com uma grande força naval capaz de deter e inspecionar a chegada de carregamentos".</t>
         </is>
       </c>
       <c r="K131" t="inlineStr"/>
@@ -7753,37 +7753,37 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Qual foi a principal motivação econômica identificada por Mikhail Gorbachev para iniciar a *perestroika* (reestruturação) na União Soviética?</t>
+          <t>Qual foi a reflexão do historiador Arnold Toynbee sobre o perigo enfrentado pela humanidade durante a crise dos mísseis, comparando-a a épocas primitivas?</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A necessidade de importar tecnologia de entretenimento do Japão.</t>
+          <t>A humanidade estava mais segura agora do que na época dos tigres, graças à tecnologia de defesa.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>A percepção de que uma economia morosa e estagnada não poderia financiar grandes empreitadas militares e a competição com os EUA.</t>
+          <t>As chances de sobrevivência eram maiores quando estávamos indefesos contra tigres do que quando nos tornamos indefesos contra nós mesmos.</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>O desejo de privatizar todas as terras agrícolas para enriquecer sua família em Stavropol.</t>
+          <t>A sobrevivência humana independe das armas nucleares, sendo garantida pela diplomacia moderna.</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>A pressão internacional para que a União Soviética adotasse o dólar como moeda oficial.</t>
+          <t>O perigo nuclear era exagerado, sendo menor do que as ameaças naturais enfrentadas pelos ancestrais humanos.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 8**, Gorbachev percebeu que "uma economia tão morosa dificilmente poderia financiar uma grande empreitada militar".</t>
+          <t>Nos termos do **segundo parágrafo da Página 5**, Toynbee afirmou: "As perspectivas de sobrevivência... eram consideravelmente maiores quando estávamos indefesos contra tigres... do que hoje".</t>
         </is>
       </c>
       <c r="K132" t="inlineStr"/>
@@ -7809,47 +7809,47 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Sobre o primeiro encontro entre Gorbachev e Reagan em Genebra (1985), como o texto descreve as impressões pessoais que um teve do outro?</t>
+          <t>Quais ações tomadas por Nasser em maio de 1967, em relação às forças internacionais e ao comércio israelense, aumentaram a tensão no Oriente Médio?</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Ambos se viram imediatamente como irmãos ideológicos e concordaram em tudo.</t>
+          <t>Nasser nacionalizou o Canal de Suez e proibiu a passagem de navios norte-americanos.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Gorbachev viu Reagan como um "dinossauro político", e Reagan viu Gorbachev como um "urso russo" que rangia os dentes.</t>
+          <t>Nasser assinou um tratado de paz com Israel e abriu as fronteiras para o comércio livre.</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Gorbachev considerou Reagan um visionário moderno, enquanto Reagan achou Gorbachev fraco e indeciso.</t>
+          <t>Nasser mandou embora os soldados da ONU da Faixa de Gaza e impediu cargueiros israelenses de usar o porto de Eilat.</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Reagan recusou-se a apertar a mão de Gorbachev, mantendo uma hostilidade aberta durante todo o encontro.</t>
+          <t>Nasser bombardeou Tel Aviv preventivamente e invadiu a Jordânia.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 9**, "Gorbachev considerou Reagan um dinossauro político... enquanto Reagan viu em Gorbachev um urso russo".</t>
+          <t>Segundo o **terceiro parágrafo da Página 6**, Nasser "mandou-os [soldados da ONU] embora. Em seguida impediu os cargueiros israelenses de entrar no porto de Eilat".</t>
         </is>
       </c>
       <c r="K133" t="inlineStr"/>
@@ -7865,37 +7865,37 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Qual foi o impacto paradoxal do Acordo de Helsinque, assinado em 1975, para o bloco comunista, segundo o texto?</t>
+          <t>Qual foi a consequência logística imediata do fechamento do Canal de Suez após o conflito de 1967 para o transporte de petróleo rumo à Europa e América do Norte?</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>O acordo fortaleceu a economia soviética ao abrir o mercado para produtos ocidentais sem restrições.</t>
+          <t>O transporte de petróleo foi interrompido, causando uma crise de desabastecimento global.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>O acordo garantiu que os Estados Unidos jamais interviriam em questões de direitos humanos na Europa Oriental.</t>
+          <t>Os navios passaram a utilizar o Canal do Panamá, que foi alargado para a ocasião.</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>O acordo pareceu um pequeno passo pelos direitos humanos, mas enfraqueceu a crença comunista de soberania absoluta dentro de suas fronteiras.</t>
+          <t>As embarcações tiveram que fazer uma longa rota de desvio pelo Cabo da Boa Esperança, exigindo a construção de navios maiores.</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>O acordo resultou na dissolução imediata da OTAN e do Pacto de Varsóvia.</t>
+          <t>O petróleo passou a ser transportado exclusivamente por oleodutos através da União Soviética.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Conforme o **primeiro parágrafo da Página 1**, o gesto enfraqueceu a crença de que os comunistas "tinham o direito de fazer o que bem entendessem dentro de suas fronteiras".</t>
+          <t>Conforme o **segundo parágrafo da Página 7**, as embarcações passaram a fazer uma rota de desvio: "cruzar a linha do Equador, navegar as fortes ondas do Cabo da Boa Esperança... exigiu a construção de navios grandes".</t>
         </is>
       </c>
       <c r="K134" t="inlineStr"/>
@@ -7921,47 +7921,47 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Comparando o acidente de Chernobyl (1986) com o de Three Mile Island, qual fator agravante é destacado no texto sobre a tragédia soviética?</t>
+          <t>Em relação à exploração de Marte, o que a missão da nave norte-americana Mariner 4, em 1965, revelou em contraste com as teorias anteriores de Giovanni Schiaparelli?</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Os engenheiros de Chernobyl estavam menos preparados e a evacuação começou tarde demais, trinta e sete horas depois.</t>
+          <t>Confirmou a existência de canais de irrigação, mas estavam secos e abandonados.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>O reator de Chernobyl era muito menor, o que concentrou a radiação de forma mais letal.</t>
+          <t>Detectou sinais claros de vida microbiana no subsolo do planeta.</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Three Mile Island causou mais mortes imediatas, mas Chernobyl teve maior impacto ambiental a longo prazo.</t>
+          <t>Não detectou sinal de vida, revelando um terreno frio e avermelhado, refutando a ideia de canais construídos por seres inteligentes.</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>O governo soviético evacuou a cidade em menos de uma hora, causando pânico generalizado.</t>
+          <t>Descobriu vastas florestas fossilizadas, indicando vida em um passado remoto.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Segundo o **terceiro parágrafo da Página 2**, "os engenheiros de Chernobyl estavam menos preparados... a evacuação começou tarde demais, trinta e sete horas depois".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 8**, a Mariner 4 "não detectou sinal de vida... revelara um terreno frio e avermelhado", contrariando a tese de "obra de seres inteligentes" de Schiaparelli.</t>
         </is>
       </c>
       <c r="K135" t="inlineStr"/>
@@ -7977,37 +7977,37 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Qual paralelo histórico o texto estabelece ao descrever o impacto da guerra do Afeganistão sobre a moral da União Soviética?</t>
+          <t>Em 1973, os Estados Unidos assinaram um cessar-fogo no Vietnã. De acordo com o texto, qual era a situação contrastante entre os blocos comunista e capitalista naquele momento?</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>A guerra foi comparada à vitória soviética sobre Hitler, reforçando o orgulho nacional.</t>
+          <t>Os Estados Unidos saíram vitoriosos do Vietnã, enquanto a União Soviética enfrentava uma revolta armada em Moscou.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>A guerra era para Moscou o que o Vietnã havia sido para Washington, solapando o moral do país.</t>
+          <t>O Vietnã representou uma vitória comunista, e os líderes soviéticos não imaginavam que uma grande derrota interna se aproximava.</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>O conflito foi visto como uma rápida operação policial, semelhante à invasão da Tchecoslováquia.</t>
+          <t>A conquista da Lua pagou todos os custos da Guerra do Vietnã, estabilizando a economia norte-americana.</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>A guerra foi comparada à Revolução Russa, pois uniu camponeses e militares.</t>
+          <t>Os países-satélites da URSS, como a Polônia e a Hungria, já haviam declarado independência em 1973.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -8017,7 +8017,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>De acordo com o **primeiro parágrafo da Página 3**, "Aquela guerra era para Moscou o que o Vietnã havia sido para Washington".</t>
+          <t>Conforme o **segundo parágrafo da Página 1**, o Vietnã foi a última grande vitória comunista, mas os líderes russos "nem imaginavam que viriam a uma imensa derrota em casa".</t>
         </is>
       </c>
       <c r="K136" t="inlineStr"/>
@@ -8033,47 +8033,47 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Por que a situação econômica da Alemanha Oriental era considerada um "contraste perigoso" em relação à Alemanha Ocidental?</t>
+          <t>O texto descreve a sociedade soviética na década de 1970 como marcada por desigualdades. Qual das alternativas abaixo descreve corretamente a situação dos privilégios e do abastecimento?</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Porque a Alemanha Oriental era extremamente pobre e sofria com a fome, diferentemente do lado ocidental.</t>
+          <t>Todos os cidadãos, desde mineiros até funcionários do partido, tinham acesso igualitário a carros e casas de campo.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Porque, apesar de ter o padrão de vida mais alto do bloco comunista, sua população precisava trabalhar muito mais para obter os mesmos bens que no lado ocidental.</t>
+          <t>A economia de mercado funcionava livremente, garantindo abundância de frutas e vegetais frescos durante todo o ano.</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Porque a Alemanha Oriental havia adotado o capitalismo secretamente, gerando inveja nos outros países comunistas.</t>
+          <t>Havia uma elite de funcionários com limusines e privilégios, enquanto o cidadão comum enfrentava apartamentos apertados e filas para comida.</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Porque a Alemanha Ocidental estava em crise profunda, incentivando a migração para o leste.</t>
+          <t>O chefe de estado, Leonid Brejnev, admitia publicamente que o país estava estagnado e perdeu a corrida espacial.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 4**, a população oriental "tinha de trabalhar muitas horas para conseguir comprar os mesmos produtos que podiam ser obtidos na Alemanha Ocidental pelo equivalente a poucas horas".</t>
+          <t>Segundo o **segundo parágrafo da Página 2**, "Algumas centenas de funcionários... estavam confortavelmente instalados bem no topo... Seus chalés... eram mais do que simples cabanas", contrastando com o cidadão comum.</t>
         </is>
       </c>
       <c r="K137" t="inlineStr"/>
@@ -8089,37 +8089,37 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Qual atitude de Mikhail Gorbachev em relação aos países-satélites sinalizou que os governos do Leste Europeu não podiam mais contar com a "força bruta" de Moscou?</t>
+          <t>Durante a gestão de Leonid Brejnev, como o texto caracteriza a corrida armamentista e as tentativas diplomáticas de controle?</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Ele enviou mais tanques para a fronteira com a Áustria para impedir fugas.</t>
+          <t>A corrida armamentista cessou completamente, pois os mísseis não conseguiam viajar mais de 100 quilômetros.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Ele ameaçou usar armas nucleares caso o sindicato Solidariedade assumisse o poder na Polônia.</t>
+          <t>Brejnev recusou-se a negociar com qualquer presidente norte-americano, preferindo o isolamento total.</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Ele retirou as tropas soviéticas da Tchecoslováquia e da Hungria, deixando a fronteira com a Áustria praticamente desguarnecida.</t>
+          <t>O perigo de destruição mútua levou a tratados de limitação de mísseis (1972 e 1979), gerando em Washington a impressão de perda de vantagens militares.</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Ele aumentou o financiamento para as polícias secretas locais na Romênia e Bulgária.</t>
+          <t>A União Soviética desmantelou unilateralmente seus submarinos nucleares em sinal de paz.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Segundo o **primeiro parágrafo da Página 5**, Gorbachev deixou tal disposição clara "ao retirar as tropas soviéticas da Tchecoslováquia e da Hungria".</t>
+          <t>De acordo com o **terceiro parágrafo da Página 3**, o custo e o perigo levaram a tratados em 1972 e 1979, e as negociações de Brejnev causaram "uma forte impressão... de que os Estados Unidos estavam perdendo algumas vantagens".</t>
         </is>
       </c>
       <c r="K138" t="inlineStr"/>
@@ -8145,47 +8145,47 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Como o texto descreve a reação internacional e o contexto da reunificação das duas Alemanhas em 3 de outubro de 1990?</t>
+          <t>Apesar da força aparente do comunismo em várias regiões na década de 1970, o texto destaca um evento trágico no Camboja sob o regime de Pol Pot. O que ocorreu nesse país entre 1975 e 1978?</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>A reunificação ocorreu à revelia das potências vencedoras da Segunda Guerra, que tentaram impedi-la militarmente.</t>
+          <t>Uma transição pacífica para a democracia com apoio das Nações Unidas.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>A reunificação teve o apoio de todos os grandes países que, no fim da Segunda Guerra, haviam insistido na divisão da Alemanha.</t>
+          <t>Um rápido desenvolvimento industrial que eliminou a fome na região.</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>A reunificação foi vetada pelos Estados Unidos, mas realizada unilateralmente por Helmut Kohl.</t>
+          <t>Um genocídio onde cerca de 20% da população morreu por exaustão, fome, doenças ou execuções.</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>A reunificação foi apoiada apenas pela União Soviética, enquanto a França e a Grã-Bretanha se opuseram.</t>
+          <t>A expulsão de todos os comunistas do governo pelo príncipe Sihanouk.</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 6**, elas se uniram "tendo o apoio de todos os grandes países que haviam insistido... que a Alemanha jamais deveria voltar a ser um só país".</t>
+          <t>Conforme o **segundo parágrafo da Página 4**, sob Pol Pot, "um enorme número de pessoas morreu... o número de mortos chegava perto dos 2 milhões, ou seja, 20% da população".</t>
         </is>
       </c>
       <c r="K139" t="inlineStr"/>
@@ -8201,47 +8201,47 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Qual foi o impacto do "Grande Salto à Frente" implementado por Mao Tsé-tung na China, segundo a estimativa citada no texto?</t>
+          <t>A eleição de um papa polonês em 1978 foi vista como um movimento estratégico pelo Colégio dos Cardeais. Qual foi a interpretação política dessa escolha citada no texto?</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Foi um sucesso industrial que colocou a China à frente da União Soviética na produção de aço.</t>
+          <t>Acreditava-se que, ao eleger um europeu do leste, enviariam os "soldados de Cristo" para o coração do comunismo em um momento crucial.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Foi um fracasso agrícola, um "salto para trás", que causou um período de fome matando cerca de 30 milhões de pessoas.</t>
+          <t>Foi uma escolha puramente acidental, pois não havia candidatos italianos disponíveis na época.</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Foi uma campanha cultural que erradicou o analfabetismo em menos de dois anos.</t>
+          <t>O objetivo era agradar a União Soviética, escolhendo um líder religioso de um país alinhado a Moscou.</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Foi um programa espacial que permitiu à China lançar seu primeiro satélite antes dos EUA.</t>
+          <t>A intenção era afastar a Igreja Católica dos assuntos políticos da Europa Oriental.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Conforme o **segundo parágrafo da Página 7**, "seu Grande Salto à Frente foi um salto para trás. A agricultura fracassou e estima-se que o período de fome... tenha matado em torno de 30 milhões".</t>
+          <t>Segundo o **segundo parágrafo da Página 5**, fontes afirmam que acreditavam que, "elegendo um europeu do leste enviariam os soldados de Cristo para o coração do comunismo".</t>
         </is>
       </c>
       <c r="K140" t="inlineStr"/>
@@ -8257,37 +8257,37 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Qual diferença crucial o texto aponta entre a repressão na Praça da Paz Celestial em 1989 e possíveis repressões anteriores sob Mao Tsé-tung?</t>
+          <t>Em 1980, surgiu na Polônia o Movimento Solidariedade, liderado por Lech Walesa. Qual reivindicação feita por esse grupo era considerada inédita em países comunistas?</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>A repressão de 1989 foi muito mais violenta em números absolutos do que qualquer expurgo de Mao.</t>
+          <t>O direito à propriedade privada de grandes indústrias estatais.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Em 1989, Pequim estava cheia de turistas e câmeras, fazendo com que as notícias corressem o mundo, ao contrário do isolamento da era Mao.</t>
+          <t>O direito à greve, algo que não existia nos regimes comunistas.</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>A repressão de 1989 contou com o apoio explícito dos Estados Unidos e da União Soviética.</t>
+          <t>A dissolução imediata do exército polonês.</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Sob Mao, nunca houve repressão a dissidentes, tornando o evento de 1989 algo inédito na história comunista chinesa.</t>
+          <t>A proibição da prática do catolicismo na Polônia.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8297,7 +8297,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 8**, se fosse com Mao, daria uma notinha, "Mas em 1989 Pequim estava cheia de turistas e câmeras por toda parte, e as notícias corriam mundo afora".</t>
+          <t>Conforme o **primeiro parágrafo da Página 6**, o Movimento Solidariedade "reivindicava o direito à greve - algo que não existia em países comunistas".</t>
         </is>
       </c>
       <c r="K141" t="inlineStr"/>
@@ -8313,47 +8313,47 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Qual fator facilitou a atração de capital estrangeiro para a China a partir da década de 1980, apesar da economia em crise?</t>
+          <t>Ao assumir a presidência dos EUA, Ronald Reagan propôs a "Iniciativa Estratégica de Defesa". Qual era o objetivo desse projeto, segundo o texto?</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>A existência de milhões de chineses vivendo no exterior (diaspora) que reinvestiram riqueza e empreendedorismo no país de origem.</t>
+          <t>Reduzir drasticamente os gastos militares para focar em programas sociais.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>A descoberta de vastas reservas de petróleo no deserto de Gobi que atraíram empresas americanas.</t>
+          <t>Criar um sistema de defesa com armas em solo, mar e espaço para interceptar ataques de mísseis russos.</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>A total democratização do sistema político chinês, que garantiu segurança jurídica aos investidores.</t>
+          <t>Enviar tropas terrestres para invadir a União Soviética através do Alasca.</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>O empréstimo maciço concedido pelo Fundo Monetário Internacional sem juros.</t>
+          <t>Estabelecer uma base lunar permanente para mineração de recursos.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>De acordo com o **primeiro parágrafo da Página 9**, a China conseguiu capital "por conta dos milhões de chineses que viviam no exterior... reinvestiram no país de origem".</t>
+          <t>De acordo com o **primeiro parágrafo da Página 7**, o plano (Guerra nas Estrelas) previa que armas "prontas em solo, no mar e no espaço, poderiam interceptar qualquer ataque de mísseis russos".</t>
         </is>
       </c>
       <c r="K142" t="inlineStr"/>
@@ -8369,47 +8369,47 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>O texto descreve o início da década de 1990 como um período de "falso alvorecer" e otimismo prematuro. Qual era a crença predominante naquela época?</t>
+          <t>Qual foi a principal motivação econômica identificada por Mikhail Gorbachev para iniciar a *perestroika* (reestruturação) na União Soviética?</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Acreditava-se que a democracia, o individualismo e o livre-comércio haviam obtido um triunfo permanente.</t>
+          <t>A necessidade de importar tecnologia de entretenimento do Japão.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Acreditava-se que uma guerra nuclear era iminente devido ao colapso descontrolado da URSS.</t>
+          <t>A percepção de que uma economia morosa e estagnada não poderia financiar grandes empreitadas militares e a competição com os EUA.</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Acreditava-se que a China se tornaria a única superpotência mundial antes do ano 2000.</t>
+          <t>O desejo de privatizar todas as terras agrícolas para enriquecer sua família em Stavropol.</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Acreditava-se que a internet seria usada exclusivamente para fins militares e de espionagem.</t>
+          <t>A pressão internacional para que a União Soviética adotasse o dólar como moeda oficial.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Conforme o **terceiro parágrafo da Página 10**, "Acreditava-se piamente que a democracia e o individualismo político e econômico haviam obtido um triunfo permanente".</t>
+          <t>Segundo o **terceiro parágrafo da Página 8**, Gorbachev percebeu que "uma economia tão morosa dificilmente poderia financiar uma grande empreitada militar".</t>
         </is>
       </c>
       <c r="K143" t="inlineStr"/>
@@ -8425,47 +8425,47 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Qual líder político pediu, em 1946, a criação de "uma espécie de Estados Unidos da Europa" como forma de garantir a paz?</t>
+          <t>Sobre o primeiro encontro entre Gorbachev e Reagan em Genebra (1985), como o texto descreve as impressões pessoais que um teve do outro?</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Charles de Gaulle.</t>
+          <t>Ambos se viram imediatamente como irmãos ideológicos e concordaram em tudo.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Konrad Adenauer.</t>
+          <t>Gorbachev viu Reagan como um "dinossauro político", e Reagan viu Gorbachev como um "urso russo" que rangia os dentes.</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Winston Churchill.</t>
+          <t>Gorbachev considerou Reagan um visionário moderno, enquanto Reagan achou Gorbachev fraco e indeciso.</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Franklin D. Roosevelt.</t>
+          <t>Reagan recusou-se a apertar a mão de Gorbachev, mantendo uma hostilidade aberta durante todo o encontro.</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 11**, "Winston Churchill... pediu a criação de 'uma espécie de Estados Unidos da Europa'".</t>
+          <t>Conforme o **primeiro parágrafo da Página 9**, "Gorbachev considerou Reagan um dinossauro político... enquanto Reagan viu em Gorbachev um urso russo".</t>
         </is>
       </c>
       <c r="K144" t="inlineStr"/>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Pág 12</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -8491,27 +8491,27 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Qual era a principal característica da política agrícola do bloco econômico europeu mencionada no texto?</t>
+          <t>Qual foi o impacto paradoxal do Acordo de Helsinque, assinado em 1975, para o bloco comunista, segundo o texto?</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>A proibição total de subsídios para evitar distorções no mercado global.</t>
+          <t>O acordo fortaleceu a economia soviética ao abrir o mercado para produtos ocidentais sem restrições.</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>A dependência de importações de grãos e vinhos dos Estados Unidos e da América do Sul.</t>
+          <t>O acordo garantiu que os Estados Unidos jamais interviriam em questões de direitos humanos na Europa Oriental.</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>O subsídio aos produtores locais, que gerava estoques de excedentes e eliminava a necessidade de importação.</t>
+          <t>O acordo pareceu um pequeno passo pelos direitos humanos, mas enfraqueceu a crença comunista de soberania absoluta dentro de suas fronteiras.</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>A coletivização das fazendas seguindo o modelo soviético para garantir igualdade.</t>
+          <t>O acordo resultou na dissolução imediata da OTAN e do Pacto de Varsóvia.</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>De acordo com o **segundo parágrafo da Página 12**, sua característica era uma política que "ao subsidiar os produtores locais, acumulava... estoques de excedentes... eliminando, assim, a necessidade de importação".</t>
+          <t>Conforme o **primeiro parágrafo da Página 1**, o gesto enfraqueceu a crença de que os comunistas "tinham o direito de fazer o que bem entendessem dentro de suas fronteiras".</t>
         </is>
       </c>
       <c r="K145" t="inlineStr"/>
@@ -8532,52 +8532,52 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Qual inovação metodológica Giovanni Vico introduziu no estudo da História, segundo o texto?</t>
+          <t>Comparando o acidente de Chernobyl (1986) com o de Three Mile Island, qual fator agravante é destacado no texto sobre a tragédia soviética?</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>O desenvolvimento da teoria do "desafio e da resposta" para explicar o sucesso das civilizações.</t>
+          <t>Os engenheiros de Chernobyl estavam menos preparados e a evacuação começou tarde demais, trinta e sete horas depois.</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>A análise do ambiente sociológico e do enfoque psicológico dos personagens históricos.</t>
+          <t>O reator de Chernobyl era muito menor, o que concentrou a radiação de forma mais letal.</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>A priorização de eventos políticos e militares como os únicos fatores relevantes.</t>
+          <t>Three Mile Island causou mais mortes imediatas, mas Chernobyl teve maior impacto ambiental a longo prazo.</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>A criação do conceito de "campo inteligível de estudo histórico" para delimitar a pesquisa.</t>
+          <t>O governo soviético evacuou a cidade em menos de uma hora, causando pânico generalizado.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>A análise do ambiente sociológico e do enfoque psicológico dos personagens históricos, incorporando o contexto social, cultural e psicológico da época.</t>
+          <t>Segundo o **terceiro parágrafo da Página 2**, "os engenheiros de Chernobyl estavam menos preparados... a evacuação começou tarde demais, trinta e sete horas depois".</t>
         </is>
       </c>
       <c r="K146" t="inlineStr"/>
@@ -8588,52 +8588,52 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>De acordo com a visão de Edmund Wilson sobre Giovanni Vico, qual foi a principal percepção do historiador italiano?</t>
+          <t>Qual paralelo histórico o texto estabelece ao descrever o impacto da guerra do Afeganistão sobre a moral da União Soviética?</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>A superioridade da civilização ocidental em responder aos desafios geográficos.</t>
+          <t>A guerra foi comparada à vitória soviética sobre Hitler, reforçando o orgulho nacional.</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>A importância de focar exclusivamente nos aspectos econômicos para entender a sociedade.</t>
+          <t>A guerra era para Moscou o que o Vietnã havia sido para Washington, solapando o moral do país.</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>A inevitabilidade do conflito entre civilizações como motor da história.</t>
+          <t>O conflito foi visto como uma rápida operação policial, semelhante à invasão da Tchecoslováquia.</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>O caráter orgânico da história da sociedade humana e a necessidade de reintegrar seus diversos fatores.</t>
+          <t>A guerra foi comparada à Revolução Russa, pois uniu camponeses e militares.</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>O caráter orgânico da história da sociedade humana e a necessidade de analisar costumes, leis e religiões como partes integradas de um todo.</t>
+          <t>De acordo com o **primeiro parágrafo da Página 3**, "Aquela guerra era para Moscou o que o Vietnã havia sido para Washington".</t>
         </is>
       </c>
       <c r="K147" t="inlineStr"/>
@@ -8644,52 +8644,52 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Jules Michelet, seguidor de Vico, dedicou mais de trinta anos a uma obra monumental sobre qual evento histórico, aplicando o método de seu mestre?</t>
+          <t>Por que a situação econômica da Alemanha Oriental era considerada um "contraste perigoso" em relação à Alemanha Ocidental?</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>A unificação da Itália.</t>
+          <t>Porque a Alemanha Oriental era extremamente pobre e sofria com a fome, diferentemente do lado ocidental.</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>A ascensão do Império Romano.</t>
+          <t>Porque, apesar de ter o padrão de vida mais alto do bloco comunista, sua população precisava trabalhar muito mais para obter os mesmos bens que no lado ocidental.</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>As Grandes Navegações e o descobrimento da América.</t>
+          <t>Porque a Alemanha Oriental havia adotado o capitalismo secretamente, gerando inveja nos outros países comunistas.</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>A Revolução Francesa de 1789.</t>
+          <t>Porque a Alemanha Ocidental estava em crise profunda, incentivando a migração para o leste.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Michelet aplicou o método de Vico ao dedicar-se à escrita da história da Revolução Francesa, resultando em uma obra monumental consagrada pela historiografia.</t>
+          <t>Conforme o **segundo parágrafo da Página 4**, a população oriental "tinha de trabalhar muitas horas para conseguir comprar os mesmos produtos que podiam ser obtidos na Alemanha Ocidental pelo equivalente a poucas horas".</t>
         </is>
       </c>
       <c r="K148" t="inlineStr"/>
@@ -8700,52 +8700,52 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Qual é o cerne da teoria do "desafio e da resposta" de Arnold Toynbee?</t>
+          <t>Qual atitude de Mikhail Gorbachev em relação aos países-satélites sinalizou que os governos do Leste Europeu não podiam mais contar com a "força bruta" de Moscou?</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>As civilizações prosperam unicamente devido a um clima e posição geográfica privilegiados.</t>
+          <t>Ele enviou mais tanques para a fronteira com a Áustria para impedir fugas.</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>As sociedades seguem um ciclo inevitável de ascensão e queda, independentemente de suas ações.</t>
+          <t>Ele ameaçou usar armas nucleares caso o sindicato Solidariedade assumisse o poder na Polônia.</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>A evolução histórica é determinada pela superioridade racial de certos povos.</t>
+          <t>Ele retirou as tropas soviéticas da Tchecoslováquia e da Hungria, deixando a fronteira com a Áustria praticamente desguarnecida.</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>O sucesso ou fracasso de uma sociedade depende de sua capacidade de reagir aos desafios do meio físico e de suas contradições internas.</t>
+          <t>Ele aumentou o financiamento para as polícias secretas locais na Romênia e Bulgária.</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>O sucesso ou fracasso das sociedades está ligado à forma como respondem aos desafios ambientais e internos que enfrentam.</t>
+          <t>Segundo o **primeiro parágrafo da Página 5**, Gorbachev deixou tal disposição clara "ao retirar as tropas soviéticas da Tchecoslováquia e da Hungria".</t>
         </is>
       </c>
       <c r="K149" t="inlineStr"/>
@@ -8756,42 +8756,42 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Após estudar 21 civilizações, quais das seguintes sociedades Arnold Toynbee NÃO considerou como uma das cinco sobreviventes na atualidade?</t>
+          <t>Como o texto descreve a reação internacional e o contexto da reunificação das duas Alemanhas em 3 de outubro de 1990?</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>A sociedade islâmica.</t>
+          <t>A reunificação ocorreu à revelia das potências vencedoras da Segunda Guerra, que tentaram impedi-la militarmente.</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>A sociedade helênica.</t>
+          <t>A reunificação teve o apoio de todos os grandes países que, no fim da Segunda Guerra, haviam insistido na divisão da Alemanha.</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>A sociedade hindu.</t>
+          <t>A reunificação foi vetada pelos Estados Unidos, mas realizada unilateralmente por Helmut Kohl.</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>A sociedade cristã ortodoxa.</t>
+          <t>A reunificação foi apoiada apenas pela União Soviética, enquanto a França e a Grã-Bretanha se opuseram.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>A civilização helênica foi estudada por Toynbee, mas não foi incluída entre as cinco civilizações consideradas sobreviventes até a era moderna.</t>
+          <t>De acordo com o **segundo parágrafo da Página 6**, elas se uniram "tendo o apoio de todos os grandes países que haviam insistido... que a Alemanha jamais deveria voltar a ser um só país".</t>
         </is>
       </c>
       <c r="K150" t="inlineStr"/>
@@ -8812,52 +8812,52 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>O que o conceito de “campo inteligível do estudo histórico” de Toynbee exige do pesquisador?</t>
+          <t>Qual foi o impacto do "Grande Salto à Frente" implementado por Mao Tsé-tung na China, segundo a estimativa citada no texto?</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Comparar todas as sociedades com o padrão da civilização ocidental.</t>
+          <t>Foi um sucesso industrial que colocou a China à frente da União Soviética na produção de aço.</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Concentrar-se apenas nos eventos políticos da nação-estado moderna.</t>
+          <t>Foi um fracasso agrícola, um "salto para trás", que causou um período de fome matando cerca de 30 milhões de pessoas.</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Ignorar a influência da religião para manter a objetividade científica.</t>
+          <t>Foi uma campanha cultural que erradicou o analfabetismo em menos de dois anos.</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Estudar uma sociedade a partir de suas raízes culturais e étnicas.</t>
+          <t>Foi um programa espacial que permitiu à China lançar seu primeiro satélite antes dos EUA.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>O conceito exige a investigação da sociedade a partir de suas origens culturais e étnicas, garantindo uma análise contextualizada.</t>
+          <t>Conforme o **segundo parágrafo da Página 7**, "seu Grande Salto à Frente foi um salto para trás. A agricultura fracassou e estima-se que o período de fome... tenha matado em torno de 30 milhões".</t>
         </is>
       </c>
       <c r="K151" t="inlineStr"/>
@@ -8868,52 +8868,52 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Qual é a principal discordância da Escola dos Annales em relação à historiografia tradicional?</t>
+          <t>Qual diferença crucial o texto aponta entre a repressão na Praça da Paz Celestial em 1989 e possíveis repressões anteriores sob Mao Tsé-tung?</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sua discordância com a predominância do fato político no estudo da História.</t>
+          <t>A repressão de 1989 foi muito mais violenta em números absolutos do que qualquer expurgo de Mao.</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Sua crítica à teoria do “desafio e da resposta” de Toynbee.</t>
+          <t>Em 1989, Pequim estava cheia de turistas e câmeras, fazendo com que as notícias corressem o mundo, ao contrário do isolamento da era Mao.</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>A defesa de que a História deve ser puramente descritiva e factual.</t>
+          <t>A repressão de 1989 contou com o apoio explícito dos Estados Unidos e da União Soviética.</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>A rejeição do método analítico-interpretativo de Vico e Michelet.</t>
+          <t>Sob Mao, nunca houve repressão a dissidentes, tornando o evento de 1989 algo inédito na história comunista chinesa.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>A Escola dos Annales critica a centralidade exclusiva do fato político, defendendo uma história mais abrangente e interdisciplinar.</t>
+          <t>Segundo o **segundo parágrafo da Página 8**, se fosse com Mao, daria uma notinha, "Mas em 1989 Pequim estava cheia de turistas e câmeras por toda parte, e as notícias corriam mundo afora".</t>
         </is>
       </c>
       <c r="K152" t="inlineStr"/>
@@ -8924,52 +8924,52 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Qual foi a principal refutação de Ortega y Gasset à teoria de Toynbee?</t>
+          <t>Qual fator facilitou a atração de capital estrangeiro para a China a partir da década de 1980, apesar da economia em crise?</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Toynbee não estudou um número suficiente de civilizações.</t>
+          <t>A existência de milhões de chineses vivendo no exterior (diaspora) que reinvestiram riqueza e empreendedorismo no país de origem.</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Toynbee transformou fenômenos históricos pontuais em um princípio universal e metódico.</t>
+          <t>A descoberta de vastas reservas de petróleo no deserto de Gobi que atraíram empresas americanas.</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Toynbee deu importância excessiva à religião na formação das sociedades.</t>
+          <t>A total democratização do sistema político chinês, que garantiu segurança jurídica aos investidores.</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Toynbee ignorou a contribuição de outros historiadores clássicos.</t>
+          <t>O empréstimo maciço concedido pelo Fundo Monetário Internacional sem juros.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Gasset critica a excessiva sistematização da história na teoria do desafio e da resposta.</t>
+          <t>De acordo com o **primeiro parágrafo da Página 9**, a China conseguiu capital "por conta dos milhões de chineses que viviam no exterior... reinvestiram no país de origem".</t>
         </is>
       </c>
       <c r="K153" t="inlineStr"/>
@@ -8980,52 +8980,52 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>A teoria de Arnold Toynbee é apresentada no texto como uma superação de quais doutrinas deterministas?</t>
+          <t>O texto descreve o início da década de 1990 como um período de "falso alvorecer" e otimismo prematuro. Qual era a crença predominante naquela época?</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>As doutrinas sociológicas e psicológicas.</t>
+          <t>Acreditava-se que a democracia, o individualismo e o livre-comércio haviam obtido um triunfo permanente.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>As doutrinas da unidade orgânica e da interpretação histórica.</t>
+          <t>Acreditava-se que uma guerra nuclear era iminente devido ao colapso descontrolado da URSS.</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>As doutrinas da Nova História e da Escola dos Annales.</t>
+          <t>Acreditava-se que a China se tornaria a única superpotência mundial antes do ano 2000.</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>As doutrinas etnocentristas e geocentristas.</t>
+          <t>Acreditava-se que a internet seria usada exclusivamente para fins militares e de espionagem.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>A teoria toynebeana supera visões baseadas em preconceitos raciais e geográficos.</t>
+          <t>Conforme o **terceiro parágrafo da Página 10**, "Acreditava-se piamente que a democracia e o individualismo político e econômico haviam obtido um triunfo permanente".</t>
         </is>
       </c>
       <c r="K154" t="inlineStr"/>
@@ -9036,52 +9036,52 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Segundo a citação de Vico, qual é a relação entre os governos e a natureza dos governados?</t>
+          <t>Qual líder político pediu, em 1946, a criação de "uma espécie de Estados Unidos da Europa" como forma de garantir a paz?</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Os governos se adaptam necessariamente à natureza dos governados.</t>
+          <t>Charles de Gaulle.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>A natureza dos governados é moldada pelos governos.</t>
+          <t>Konrad Adenauer.</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Os governos são impostos à força, independentemente do povo.</t>
+          <t>Winston Churchill.</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Não existe relação clara entre governo e povo.</t>
+          <t>Franklin D. Roosevelt.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Para Vico, as estruturas de governo emergem das características do próprio povo.</t>
+          <t>Segundo o **segundo parágrafo da Página 11**, "Winston Churchill... pediu a criação de 'uma espécie de Estados Unidos da Europa'".</t>
         </is>
       </c>
       <c r="K155" t="inlineStr"/>
@@ -9092,52 +9092,52 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>Pág 12</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Com base na citação de Barbara Tuchman, qual é o papel do historiador na sociedade moderna?</t>
+          <t>Qual era a principal característica da política agrícola do bloco econômico europeu mencionada no texto?</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Manter um registro puramente factual dos eventos.</t>
+          <t>A proibição total de subsídios para evitar distorções no mercado global.</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Ser o principal intérprete do papel do homem na sociedade.</t>
+          <t>A dependência de importações de grãos e vinhos dos Estados Unidos e da América do Sul.</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Prever o futuro com base em padrões históricos.</t>
+          <t>O subsídio aos produtores locais, que gerava estoques de excedentes e eliminava a necessidade de importação.</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Provar a superioridade de uma nação.</t>
+          <t>A coletivização das fazendas seguindo o modelo soviético para garantir igualdade.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>O historiador interpreta a experiência humana e dá sentido aos acontecimentos históricos.</t>
+          <t>De acordo com o **segundo parágrafo da Página 12**, sua característica era uma política que "ao subsidiar os produtores locais, acumulava... estoques de excedentes... eliminando, assim, a necessidade de importação".</t>
         </is>
       </c>
       <c r="K156" t="inlineStr"/>
@@ -9163,37 +9163,37 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Qual dos seguintes historiadores NÃO está associado à Escola dos Annales, segundo o texto?</t>
+          <t>Qual inovação metodológica Giovanni Vico introduziu no estudo da História, segundo o texto?</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Fernand Braudel.</t>
+          <t>O desenvolvimento da teoria do "desafio e da resposta" para explicar o sucesso das civilizações.</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Marc Bloch.</t>
+          <t>A análise do ambiente sociológico e do enfoque psicológico dos personagens históricos.</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Jules Michelet.</t>
+          <t>A priorização de eventos políticos e militares como os únicos fatores relevantes.</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Lucien Febvre.</t>
+          <t>A criação do conceito de "campo inteligível de estudo histórico" para delimitar a pesquisa.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Michelet é uma inspiração intelectual da escola, mas pertence a uma geração anterior.</t>
+          <t>A análise do ambiente sociológico e do enfoque psicológico dos personagens históricos, incorporando o contexto social, cultural e psicológico da época.</t>
         </is>
       </c>
       <c r="K157" t="inlineStr"/>
@@ -9219,37 +9219,37 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>O pensamento de Giovanni Vico de que “onde quer que as mesmas circunstâncias estejam presentes surgirão os mesmos fenômenos” sugere uma visão da História que é:</t>
+          <t>De acordo com a visão de Edmund Wilson sobre Giovanni Vico, qual foi a principal percepção do historiador italiano?</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Baseada em padrões e regularidades observáveis na evolução social.</t>
+          <t>A superioridade da civilização ocidental em responder aos desafios geográficos.</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Determinada exclusivamente pela vontade de grandes líderes.</t>
+          <t>A importância de focar exclusivamente nos aspectos econômicos para entender a sociedade.</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Linear e progressiva.</t>
+          <t>A inevitabilidade do conflito entre civilizações como motor da história.</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Totalmente aleatória e imprevisível.</t>
+          <t>O caráter orgânico da história da sociedade humana e a necessidade de reintegrar seus diversos fatores.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>A citação indica a busca de leis ou regularidades no desenvolvimento histórico.</t>
+          <t>O caráter orgânico da história da sociedade humana e a necessidade de analisar costumes, leis e religiões como partes integradas de um todo.</t>
         </is>
       </c>
       <c r="K158" t="inlineStr"/>
@@ -9275,37 +9275,37 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Qual dos critérios abaixo NÃO faz parte do método de investigação histórica de Toynbee?</t>
+          <t>Jules Michelet, seguidor de Vico, dedicou mais de trinta anos a uma obra monumental sobre qual evento histórico, aplicando o método de seu mestre?</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>A priorização do fato político como principal motor da história.</t>
+          <t>A unificação da Itália.</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>A definição de um campo inteligível de estudo histórico.</t>
+          <t>A ascensão do Império Romano.</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>A criação de um esquema baseado na teoria do desafio e da resposta.</t>
+          <t>As Grandes Navegações e o descobrimento da América.</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>A separação da teologia da política nas avaliações históricas.</t>
+          <t>A Revolução Francesa de 1789.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Toynbee não prioriza exclusivamente o fato político, adotando uma visão civilizacional ampla.</t>
+          <t>Michelet aplicou o método de Vico ao dedicar-se à escrita da história da Revolução Francesa, resultando em uma obra monumental consagrada pela historiografia.</t>
         </is>
       </c>
       <c r="K159" t="inlineStr"/>
@@ -9331,37 +9331,37 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>A obra de Jules Michelet sobre a Revolução Francesa é consagrada pelos historiadores modernos por ser:</t>
+          <t>Qual é o cerne da teoria do "desafio e da resposta" de Arnold Toynbee?</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>O mais completo estudo histórico-sociológico sobre o movimento de 1789.</t>
+          <t>As civilizações prosperam unicamente devido a um clima e posição geográfica privilegiados.</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>A única a defender a monarquia contra os revolucionários.</t>
+          <t>As sociedades seguem um ciclo inevitável de ascensão e queda, independentemente de suas ações.</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>O relato mais sucinto e de fácil leitura.</t>
+          <t>A evolução histórica é determinada pela superioridade racial de certos povos.</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>A primeira a utilizar exclusivamente fontes primárias.</t>
+          <t>O sucesso ou fracasso de uma sociedade depende de sua capacidade de reagir aos desafios do meio físico e de suas contradições internas.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>A obra é valorizada por combinar análise sociológica, interpretação e riqueza factual.</t>
+          <t>O sucesso ou fracasso das sociedades está ligado à forma como respondem aos desafios ambientais e internos que enfrentam.</t>
         </is>
       </c>
       <c r="K160" t="inlineStr"/>
@@ -9387,37 +9387,37 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>A teoria de Toynbee dá um papel central ao “homem ativo”. O que isso significa no contexto de sua teoria?</t>
+          <t>Após estudar 21 civilizações, quais das seguintes sociedades Arnold Toynbee NÃO considerou como uma das cinco sobreviventes na atualidade?</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>A história é feita apenas por grandes líderes e heróis individuais.</t>
+          <t>A sociedade islâmica.</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>A atividade econômica é o único desafio relevante para uma civilização.</t>
+          <t>A sociedade helênica.</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Apenas sociedades com poder militar são consideradas ativas.</t>
+          <t>A sociedade hindu.</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>O homem, independentemente de raça ou localização, pode triunfar se responder adequadamente aos desafios.</t>
+          <t>A sociedade cristã ortodoxa.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>O conceito de “homem ativo” afirma que o êxito histórico depende da resposta humana aos desafios, e não de fatores raciais ou geográficos.</t>
+          <t>A civilização helênica foi estudada por Toynbee, mas não foi incluída entre as cinco civilizações consideradas sobreviventes até a era moderna.</t>
         </is>
       </c>
       <c r="K161" t="inlineStr"/>
@@ -9443,27 +9443,27 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Ao analisar a obra de Toynbee, Ortega y Gasset discorda do conceito de “campo inteligível do estudo da História”. O texto classifica essa discordância como sendo principalmente:</t>
+          <t>O que o conceito de “campo inteligível do estudo histórico” de Toynbee exige do pesquisador?</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Baseada em uma leitura incompleta do *Study of History*.</t>
+          <t>Comparar todas as sociedades com o padrão da civilização ocidental.</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Um erro de tradução da obra de Toynbee.</t>
+          <t>Concentrar-se apenas nos eventos políticos da nação-estado moderna.</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Fundamental e invalidante de toda a obra de Toynbee.</t>
+          <t>Ignorar a influência da religião para manter a objetividade científica.</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Apenas especulativa.</t>
+          <t>Estudar uma sociedade a partir de suas raízes culturais e étnicas.</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>A discordância é tratada como uma avaliação teórica, sem invalidar factual ou estruturalmente a obra de Toynbee.</t>
+          <t>O conceito exige a investigação da sociedade a partir de suas origens culturais e étnicas, garantindo uma análise contextualizada.</t>
         </is>
       </c>
       <c r="K162" t="inlineStr"/>
@@ -9499,27 +9499,27 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Qual historiador é considerado o principal inovador dos estudos da ciência histórica e o ponto de partida para a análise do Capítulo IV?</t>
+          <t>Qual é a principal discordância da Escola dos Annales em relação à historiografia tradicional?</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Giovanni Vico.</t>
+          <t>Sua discordância com a predominância do fato político no estudo da História.</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Arnold Toynbee.</t>
+          <t>Sua crítica à teoria do “desafio e da resposta” de Toynbee.</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Marc Bloch.</t>
+          <t>A defesa de que a História deve ser puramente descritiva e factual.</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Jules Michelet.</t>
+          <t>A rejeição do método analítico-interpretativo de Vico e Michelet.</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>O texto reconhece Giovanni Vico como o principal inovador da ciência histórica moderna.</t>
+          <t>A Escola dos Annales critica a centralidade exclusiva do fato político, defendendo uma história mais abrangente e interdisciplinar.</t>
         </is>
       </c>
       <c r="K163" t="inlineStr"/>
@@ -9555,37 +9555,37 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>O que Vico queria dizer com a frase “A natureza das coisas não é mais do que virem elas a ser em determinados momentos e de determinadas maneiras”?</t>
+          <t>Qual foi a principal refutação de Ortega y Gasset à teoria de Toynbee?</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Que a essência das coisas é imutável.</t>
+          <t>Toynbee não estudou um número suficiente de civilizações.</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Que a história é cíclica e repetitiva.</t>
+          <t>Toynbee transformou fenômenos históricos pontuais em um princípio universal e metódico.</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Que apenas fenômenos naturais podem ser estudados cientificamente.</t>
+          <t>Toynbee deu importância excessiva à religião na formação das sociedades.</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Que instituições e costumes só podem ser compreendidos a partir de sua origem e desenvolvimento histórico.</t>
+          <t>Toynbee ignorou a contribuição de outros historiadores clássicos.</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Vico defende que o entendimento das instituições exige a análise de sua formação e evolução histórica.</t>
+          <t>Gasset critica a excessiva sistematização da história na teoria do desafio e da resposta.</t>
         </is>
       </c>
       <c r="K164" t="inlineStr"/>
@@ -9611,37 +9611,37 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>A abrangência da historiografia defendida pela Escola dos Annales se opõe a qual visão mais restrita da História?</t>
+          <t>A teoria de Arnold Toynbee é apresentada no texto como uma superação de quais doutrinas deterministas?</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>À visão que dá predominância ao estudo do fato político.</t>
+          <t>As doutrinas sociológicas e psicológicas.</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>À visão de Vico sobre a unidade orgânica da história.</t>
+          <t>As doutrinas da unidade orgânica e da interpretação histórica.</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>À visão de Toynbee sobre o estudo comparado das civilizações.</t>
+          <t>As doutrinas da Nova História e da Escola dos Annales.</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>À visão que inclui sociologia e psicologia na análise histórica.</t>
+          <t>As doutrinas etnocentristas e geocentristas.</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>A Escola dos Annales rejeita a centralidade exclusiva do fato político na explicação histórica.</t>
+          <t>A teoria toynebeana supera visões baseadas em preconceitos raciais e geográficos.</t>
         </is>
       </c>
       <c r="K165" t="inlineStr"/>
@@ -9667,37 +9667,37 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Como a teoria de Toynbee pode ser vista como uma resposta às doutrinas europeias que negavam a capacidade civilizatória de povos não brancos ou de climas tropicais?</t>
+          <t>Segundo a citação de Vico, qual é a relação entre os governos e a natureza dos governados?</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Ao focar exclusivamente em civilizações não europeias.</t>
+          <t>Os governos se adaptam necessariamente à natureza dos governados.</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Ao defender o clima tropical como superior.</t>
+          <t>A natureza dos governados é moldada pelos governos.</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Ao afirmar que apenas europeus responderam aos desafios.</t>
+          <t>Os governos são impostos à força, independentemente do povo.</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Ao propor que o homem ativo de qualquer raça ou latitude pode triunfar se responder ao desafio.</t>
+          <t>Não existe relação clara entre governo e povo.</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Toynbee rompe com determinismos raciais e geográficos ao afirmar a universalidade da capacidade humana de resposta.</t>
+          <t>Para Vico, as estruturas de governo emergem das características do próprio povo.</t>
         </is>
       </c>
       <c r="K166" t="inlineStr"/>
@@ -9723,37 +9723,37 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>De acordo com o resumo da refutação de Ortega y Gasset, por que ele acreditava que a História não deveria ser excessivamente metodizada?</t>
+          <t>Com base na citação de Barbara Tuchman, qual é o papel do historiador na sociedade moderna?</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Porque apenas a Escola dos Annales possuía o método correto.</t>
+          <t>Manter um registro puramente factual dos eventos.</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Porque o método de Vico já era definitivo.</t>
+          <t>Ser o principal intérprete do papel do homem na sociedade.</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Porque a História é uma ciência exata com leis fixas.</t>
+          <t>Prever o futuro com base em padrões históricos.</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Porque a História é “permanente inquietação, surpresa e mudança”.</t>
+          <t>Provar a superioridade de uma nação.</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Para Gasset, a fluidez e imprevisibilidade da História não se adequam a esquemas rígidos.</t>
+          <t>O historiador interpreta a experiência humana e dá sentido aos acontecimentos históricos.</t>
         </is>
       </c>
       <c r="K167" t="inlineStr"/>
@@ -9779,37 +9779,37 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Qual é a relação entre Jules Michelet e Giovanni Vico, conforme descrito no texto?</t>
+          <t>Qual dos seguintes historiadores NÃO está associado à Escola dos Annales, segundo o texto?</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Vico foi aluno direto de Michelet.</t>
+          <t>Fernand Braudel.</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Foram contemporâneos e fundadores da Nouvelle Histoire.</t>
+          <t>Marc Bloch.</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Michelet foi o principal crítico de Vico.</t>
+          <t>Jules Michelet.</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Michelet descobriu a obra de Vico e inspirou-se em seu método histórico.</t>
+          <t>Lucien Febvre.</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Michelet incorporou o método de Vico em sua interpretação histórica, especialmente na análise da Revolução Francesa.</t>
+          <t>Michelet é uma inspiração intelectual da escola, mas pertence a uma geração anterior.</t>
         </is>
       </c>
       <c r="K168" t="inlineStr"/>
@@ -9835,37 +9835,37 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Qual das seguintes civilizações foi estudada por Toynbee, mas NÃO está em sua lista final de cinco sociedades sobreviventes?</t>
+          <t>O pensamento de Giovanni Vico de que “onde quer que as mesmas circunstâncias estejam presentes surgirão os mesmos fenômenos” sugere uma visão da História que é:</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Islâmica.</t>
+          <t>Baseada em padrões e regularidades observáveis na evolução social.</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Egípcia.</t>
+          <t>Determinada exclusivamente pela vontade de grandes líderes.</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Chinesa.</t>
+          <t>Linear e progressiva.</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Ocidental.</t>
+          <t>Totalmente aleatória e imprevisível.</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>A civilização egípcia foi estudada, mas não é considerada sobrevivente até a atualidade por Toynbee.</t>
+          <t>A citação indica a busca de leis ou regularidades no desenvolvimento histórico.</t>
         </is>
       </c>
       <c r="K169" t="inlineStr"/>
@@ -9891,37 +9891,37 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>O que o texto sugere ao classificar Giovanni Vico como um “Ambientalista Social”?</t>
+          <t>Qual dos critérios abaixo NÃO faz parte do método de investigação histórica de Toynbee?</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Que estudava apenas sociedades em harmonia com a natureza.</t>
+          <t>A priorização do fato político como principal motor da história.</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Que defendia o determinismo geográfico climático.</t>
+          <t>A definição de um campo inteligível de estudo histórico.</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Que o ambiente social e cultural determina a forma dos governos.</t>
+          <t>A criação de um esquema baseado na teoria do desafio e da resposta.</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Que era um ativista ambiental moderno.</t>
+          <t>A separação da teologia da política nas avaliações históricas.</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Vico defendia que costumes, leis e religião moldam a natureza dos governados e, consequentemente, dos governos.</t>
+          <t>Toynbee não prioriza exclusivamente o fato político, adotando uma visão civilizacional ampla.</t>
         </is>
       </c>
       <c r="K170" t="inlineStr"/>
@@ -9947,37 +9947,37 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Qual o objetivo final do repasse histórico feito no Capítulo IV?</t>
+          <t>A obra de Jules Michelet sobre a Revolução Francesa é consagrada pelos historiadores modernos por ser:</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Apresentar a biografia de historiadores famosos sem conectar suas ideias.</t>
+          <t>O mais completo estudo histórico-sociológico sobre o movimento de 1789.</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Provar que a História é a ciência mais importante de todas.</t>
+          <t>A única a defender a monarquia contra os revolucionários.</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Mostrar como o progresso na ciência histórica fortaleceu sua inserção como inspiradora da Política e da Geopolítica.</t>
+          <t>O relato mais sucinto e de fácil leitura.</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Criticar todos os métodos históricos apresentados como ultrapassados.</t>
+          <t>A primeira a utilizar exclusivamente fontes primárias.</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>O capítulo conclui que os avanços da ciência histórica fortaleceram sua contribuição para a Política e, consequentemente, para a Geopolítica.</t>
+          <t>A obra é valorizada por combinar análise sociológica, interpretação e riqueza factual.</t>
         </is>
       </c>
       <c r="K171" t="inlineStr"/>
@@ -9988,52 +9988,52 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>...</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Qual fator econômico e geopolítico, ocorrido na década de 1970, permitiu que nações islâmicas ocupassem uma posição de barganha inédita e acumulassem grande riqueza?</t>
+          <t>A teoria de Toynbee dá um papel central ao “homem ativo”. O que isso significa no contexto de sua teoria?</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>A descoberta de vastas minas de diamantes na Indonésia e no Paquistão.</t>
+          <t>A história é feita apenas por grandes líderes e heróis individuais.</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>A liderança tecnológica na produção de microchips e computadores no Egito.</t>
+          <t>A atividade econômica é o único desafio relevante para uma civilização.</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>O aumento vertiginoso do preço do petróleo liderado pelos produtores árabes em 1973.</t>
+          <t>Apenas sociedades com poder militar são consideradas ativas.</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>A conversão em massa de populações europeias ao islamismo, gerando fluxo de capital.</t>
+          <t>O homem, independentemente de raça ou localização, pode triunfar se responder adequadamente aos desafios.</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>d</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Conforme o **terceiro parágrafo da Página 1**, "Em 1973, os principais produtores de petróleo... aumentaram vertiginosamente o preço... O Oriente Médio foi inundado pelos lucros".</t>
+          <t>O conceito de “homem ativo” afirma que o êxito histórico depende da resposta humana aos desafios, e não de fatores raciais ou geográficos.</t>
         </is>
       </c>
       <c r="K172" t="inlineStr"/>
@@ -10044,52 +10044,52 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>...</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>De acordo com o texto, como evoluiu a relação entre os valores das nações cristãs ocidentais e as concepções islâmicas ao longo do século XX?</t>
+          <t>Ao analisar a obra de Toynbee, Ortega y Gasset discorda do conceito de “campo inteligível do estudo da História”. O texto classifica essa discordância como sendo principalmente:</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Ambos se tornaram mais seculares e liberais, convergindo em práticas sociais e morais.</t>
+          <t>Baseada em uma leitura incompleta do *Study of History*.</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>O Ocidente tornou-se mais secular e permissivo, enquanto o Islã deplorava essas mudanças e a "moral frouxa".</t>
+          <t>Um erro de tradução da obra de Toynbee.</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>O Islã passou por uma rápida modernização secular, enquanto o Ocidente retornou ao fundamentalismo religioso.</t>
+          <t>Fundamental e invalidante de toda a obra de Toynbee.</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>As concepções permaneceram idênticas às de 1900, sem grandes alterações comportamentais em nenhum dos lados.</t>
+          <t>Apenas especulativa.</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>d</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da Página 2**, "As nações cristãs se tornaram mais seculares... O Islã deplorava as rápidas mudanças do Ocidente, e o Ocidente deplorava a lentidão das mudanças no Islã".</t>
+          <t>A discordância é tratada como uma avaliação teórica, sem invalidar factual ou estruturalmente a obra de Toynbee.</t>
         </is>
       </c>
       <c r="K173" t="inlineStr"/>
@@ -10100,52 +10100,52 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>...</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Qual era a natureza da relação entre os Estados Unidos e a Arábia Saudita descrita no texto, e quais concessões eram feitas pelos norte-americanos no país?</t>
+          <t>Qual historiador é considerado o principal inovador dos estudos da ciência histórica e o ponto de partida para a análise do Capítulo IV?</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Eram inimigos declarados, com os EUA proibidos de comprar petróleo saudita.</t>
+          <t>Giovanni Vico.</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Eram aliados onde os EUA forneciam proteção militar em troca de petróleo, mas os americanos deviam seguir restrições puritanas, como não celebrar o Natal nas bases.</t>
+          <t>Arnold Toynbee.</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>A Arábia Saudita era uma colônia formal dos Estados Unidos, onde a cultura ocidental era imposta livremente.</t>
+          <t>Marc Bloch.</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>A relação era puramente comercial, sem envolvimento militar, e os americanos viviam em enclaves com total liberdade religiosa e social.</t>
+          <t>Jules Michelet.</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Conforme o **terceiro parágrafo da seção Fervor e Petróleo (Pág. 3)**, um fornecia petróleo e outro proteção, e membros das forças armadas "concordaram em não celebrar missas de Natal nas bases".</t>
+          <t>O texto reconhece Giovanni Vico como o principal inovador da ciência histórica moderna.</t>
         </is>
       </c>
       <c r="K174" t="inlineStr"/>
@@ -10156,52 +10156,52 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>...</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segundo o texto, qual era o perfil de Osama Bin Laden e qual foi sua trajetória antes dos ataques terroristas contra os EUA?</t>
+          <t>O que Vico queria dizer com a frase “A natureza das coisas não é mais do que virem elas a ser em determinados momentos e de determinadas maneiras”?</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Era um camponês pobre afegão que nunca saiu de sua aldeia até a invasão soviética.</t>
+          <t>Que a essência das coisas é imutável.</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Era um general do exército iraquiano que lutou contra o Irã na década de 1980.</t>
+          <t>Que a história é cíclica e repetitiva.</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Era membro de uma rica família saudita da construção civil que lutou contra os soviéticos no Afeganistão e se ressentia dos elos entre seu país e os EUA.</t>
+          <t>Que apenas fenômenos naturais podem ser estudados cientificamente.</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Era um clérigo iraniano xiita que sucedeu Khomeini na liderança da revolução islâmica.</t>
+          <t>Que instituições e costumes só podem ser compreendidos a partir de sua origem e desenvolvimento histórico.</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>d</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>De acordo com o **terceiro parágrafo da seção Mais e Mais Terroristas (Pág. 4)**, ele era "Uma das 57 crianças de uma rica família saudita... se ressentia dos elos entre seu país e os Estados Unidos".</t>
+          <t>Vico defende que o entendimento das instituições exige a análise de sua formação e evolução histórica.</t>
         </is>
       </c>
       <c r="K175" t="inlineStr"/>
@@ -10212,52 +10212,52 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>...</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Sobre a mecânica dos ataques de 11 de setembro de 2001, o que o texto relata sobre o destino das quatro aeronaves sequestradas?</t>
+          <t>A abrangência da historiografia defendida pela Escola dos Annales se opõe a qual visão mais restrita da História?</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Todas as quatro aeronaves atingiram seus alvos em Nova York, derrubando quatro torres comerciais.</t>
+          <t>À visão que dá predominância ao estudo do fato político.</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Dois aviões atingiram as torres gêmeas, um atingiu o Pentágono e o quarto caiu na Pensilvânia após contra-ataque dos passageiros.</t>
+          <t>À visão de Vico sobre a unidade orgânica da história.</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Três aviões foram interceptados pela força aérea antes de atingirem os alvos, e apenas um atingiu o Pentágono.</t>
+          <t>À visão de Toynbee sobre o estudo comparado das civilizações.</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Os sequestradores pousaram os aviões em aeroportos isolados para negociar a libertação de prisioneiros políticos.</t>
+          <t>À visão que inclui sociologia e psicologia na análise histórica.</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Conforme os **quarto e quinto parágrafos da seção Nova York (Pág. 5)**, descreve-se o impacto nas duas torres, no Pentágono e o quarto avião que "mergulhou na direção de um campo desabitado na Pensilvânia".</t>
+          <t>A Escola dos Annales rejeita a centralidade exclusiva do fato político na explicação histórica.</t>
         </is>
       </c>
       <c r="K176" t="inlineStr"/>
@@ -10268,52 +10268,52 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>...</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Além dos ataques ao World Trade Center, que outro ato de destruição motivado por zelo religioso extremista ocorreu no mesmo ano de 2001, conforme mencionado no texto?</t>
+          <t>Como a teoria de Toynbee pode ser vista como uma resposta às doutrinas europeias que negavam a capacidade civilizatória de povos não brancos ou de climas tropicais?</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>A destruição das grandes estátuas de Buda em Bamiyan, no Afeganistão, pelo Talibã.</t>
+          <t>Ao focar exclusivamente em civilizações não europeias.</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>A queima da Biblioteca de Alexandria no Egito por militantes radicais.</t>
+          <t>Ao defender o clima tropical como superior.</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>A destruição do Domo da Rocha em Jerusalém por extremistas.</t>
+          <t>Ao afirmar que apenas europeus responderam aos desafios.</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>O bombardeio de sítios arqueológicos na antiga Babilônia, no Iraque.</t>
+          <t>Ao propor que o homem ativo de qualquer raça ou latitude pode triunfar se responder ao desafio.</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>d</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Segundo o **segundo parágrafo da seção final (Pág. 6)**, em 2001, "membros do Talibã decidiram que as estátuas [de Buda em Bamiyan] eram um sacrilégio... e destruíram suas faces".</t>
+          <t>Toynbee rompe com determinismos raciais e geográficos ao afirmar a universalidade da capacidade humana de resposta.</t>
         </is>
       </c>
       <c r="K177" t="inlineStr"/>
@@ -10321,6 +10321,622 @@
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr"/>
     </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>De acordo com o resumo da refutação de Ortega y Gasset, por que ele acreditava que a História não deveria ser excessivamente metodizada?</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Porque apenas a Escola dos Annales possuía o método correto.</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Porque o método de Vico já era definitivo.</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Porque a História é uma ciência exata com leis fixas.</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Porque a História é “permanente inquietação, surpresa e mudança”.</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Para Gasset, a fluidez e imprevisibilidade da História não se adequam a esquemas rígidos.</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Qual é a relação entre Jules Michelet e Giovanni Vico, conforme descrito no texto?</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Vico foi aluno direto de Michelet.</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Foram contemporâneos e fundadores da Nouvelle Histoire.</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Michelet foi o principal crítico de Vico.</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Michelet descobriu a obra de Vico e inspirou-se em seu método histórico.</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Michelet incorporou o método de Vico em sua interpretação histórica, especialmente na análise da Revolução Francesa.</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Qual das seguintes civilizações foi estudada por Toynbee, mas NÃO está em sua lista final de cinco sociedades sobreviventes?</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Islâmica.</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Egípcia.</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Chinesa.</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Ocidental.</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>A civilização egípcia foi estudada, mas não é considerada sobrevivente até a atualidade por Toynbee.</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>O que o texto sugere ao classificar Giovanni Vico como um “Ambientalista Social”?</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Que estudava apenas sociedades em harmonia com a natureza.</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Que defendia o determinismo geográfico climático.</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Que o ambiente social e cultural determina a forma dos governos.</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Que era um ativista ambiental moderno.</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Vico defendia que costumes, leis e religião moldam a natureza dos governados e, consequentemente, dos governos.</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Qual o objetivo final do repasse histórico feito no Capítulo IV?</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Apresentar a biografia de historiadores famosos sem conectar suas ideias.</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Provar que a História é a ciência mais importante de todas.</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Mostrar como o progresso na ciência histórica fortaleceu sua inserção como inspiradora da Política e da Geopolítica.</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Criticar todos os métodos históricos apresentados como ultrapassados.</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>O capítulo conclui que os avanços da ciência histórica fortaleceram sua contribuição para a Política e, consequentemente, para a Geopolítica.</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Pág 1</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Qual fator econômico e geopolítico, ocorrido na década de 1970, permitiu que nações islâmicas ocupassem uma posição de barganha inédita e acumulassem grande riqueza?</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>A descoberta de vastas minas de diamantes na Indonésia e no Paquistão.</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>A liderança tecnológica na produção de microchips e computadores no Egito.</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>O aumento vertiginoso do preço do petróleo liderado pelos produtores árabes em 1973.</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>A conversão em massa de populações europeias ao islamismo, gerando fluxo de capital.</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Conforme o **terceiro parágrafo da Página 1**, "Em 1973, os principais produtores de petróleo... aumentaram vertiginosamente o preço... O Oriente Médio foi inundado pelos lucros".</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Pág 2</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>De acordo com o texto, como evoluiu a relação entre os valores das nações cristãs ocidentais e as concepções islâmicas ao longo do século XX?</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Ambos se tornaram mais seculares e liberais, convergindo em práticas sociais e morais.</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>O Ocidente tornou-se mais secular e permissivo, enquanto o Islã deplorava essas mudanças e a "moral frouxa".</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>O Islã passou por uma rápida modernização secular, enquanto o Ocidente retornou ao fundamentalismo religioso.</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>As concepções permaneceram idênticas às de 1900, sem grandes alterações comportamentais em nenhum dos lados.</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Segundo o **segundo parágrafo da Página 2**, "As nações cristãs se tornaram mais seculares... O Islã deplorava as rápidas mudanças do Ocidente, e o Ocidente deplorava a lentidão das mudanças no Islã".</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Pág 3</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Qual era a natureza da relação entre os Estados Unidos e a Arábia Saudita descrita no texto, e quais concessões eram feitas pelos norte-americanos no país?</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Eram inimigos declarados, com os EUA proibidos de comprar petróleo saudita.</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Eram aliados onde os EUA forneciam proteção militar em troca de petróleo, mas os americanos deviam seguir restrições puritanas, como não celebrar o Natal nas bases.</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>A Arábia Saudita era uma colônia formal dos Estados Unidos, onde a cultura ocidental era imposta livremente.</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>A relação era puramente comercial, sem envolvimento militar, e os americanos viviam em enclaves com total liberdade religiosa e social.</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Conforme o **terceiro parágrafo da seção Fervor e Petróleo (Pág. 3)**, um fornecia petróleo e outro proteção, e membros das forças armadas "concordaram em não celebrar missas de Natal nas bases".</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Pág 4</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Segundo o texto, qual era o perfil de Osama Bin Laden e qual foi sua trajetória antes dos ataques terroristas contra os EUA?</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Era um camponês pobre afegão que nunca saiu de sua aldeia até a invasão soviética.</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Era um general do exército iraquiano que lutou contra o Irã na década de 1980.</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Era membro de uma rica família saudita da construção civil que lutou contra os soviéticos no Afeganistão e se ressentia dos elos entre seu país e os EUA.</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Era um clérigo iraniano xiita que sucedeu Khomeini na liderança da revolução islâmica.</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>De acordo com o **terceiro parágrafo da seção Mais e Mais Terroristas (Pág. 4)**, ele era "Uma das 57 crianças de uma rica família saudita... se ressentia dos elos entre seu país e os Estados Unidos".</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Pág 5</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Sobre a mecânica dos ataques de 11 de setembro de 2001, o que o texto relata sobre o destino das quatro aeronaves sequestradas?</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Todas as quatro aeronaves atingiram seus alvos em Nova York, derrubando quatro torres comerciais.</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Dois aviões atingiram as torres gêmeas, um atingiu o Pentágono e o quarto caiu na Pensilvânia após contra-ataque dos passageiros.</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Três aviões foram interceptados pela força aérea antes de atingirem os alvos, e apenas um atingiu o Pentágono.</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Os sequestradores pousaram os aviões em aeroportos isolados para negociar a libertação de prisioneiros políticos.</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Conforme os **quarto e quinto parágrafos da seção Nova York (Pág. 5)**, descreve-se o impacto nas duas torres, no Pentágono e o quarto avião que "mergulhou na direção de um campo desabitado na Pensilvânia".</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Pág 6</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Além dos ataques ao World Trade Center, que outro ato de destruição motivado por zelo religioso extremista ocorreu no mesmo ano de 2001, conforme mencionado no texto?</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>A destruição das grandes estátuas de Buda em Bamiyan, no Afeganistão, pelo Talibã.</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>A queima da Biblioteca de Alexandria no Egito por militantes radicais.</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>A destruição do Domo da Rocha em Jerusalém por extremistas.</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>O bombardeio de sítios arqueológicos na antiga Babilônia, no Iraque.</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Segundo o **segundo parágrafo da seção final (Pág. 6)**, em 2001, "membros do Talibã decidiram que as estátuas [de Buda em Bamiyan] eram um sacrilégio... e destruíram suas faces".</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
